--- a/AAII_Financials/Yearly/CAN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CAN_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="92">
   <si>
     <t>CAN</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,34 +665,34 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G7" s="2" t="s">
         <v>3</v>
       </c>
@@ -705,20 +705,23 @@
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>388200</v>
+        <v>199100</v>
       </c>
       <c r="E8" s="3">
-        <v>187700</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
+        <v>378600</v>
+      </c>
+      <c r="F8" s="3">
+        <v>183100</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -732,20 +735,23 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>315300</v>
+        <v>271300</v>
       </c>
       <c r="E9" s="3">
-        <v>101000</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
+        <v>307500</v>
+      </c>
+      <c r="F9" s="3">
+        <v>98500</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -759,20 +765,23 @@
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>72900</v>
+        <v>-72200</v>
       </c>
       <c r="E10" s="3">
-        <v>86700</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
+        <v>71100</v>
+      </c>
+      <c r="F10" s="3">
+        <v>84600</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -786,9 +795,12 @@
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -800,19 +812,20 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>26500</v>
+        <v>23100</v>
       </c>
       <c r="E12" s="3">
-        <v>13800</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
+        <v>25800</v>
+      </c>
+      <c r="F12" s="3">
+        <v>13400</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
@@ -826,9 +839,12 @@
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -853,21 +869,24 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
@@ -880,9 +899,12 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -890,11 +912,11 @@
         <v>1700</v>
       </c>
       <c r="E15" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F15" s="3">
         <v>1300</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G15" s="3" t="s">
         <v>3</v>
       </c>
@@ -907,9 +929,12 @@
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,19 +943,20 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>369100</v>
+        <v>346700</v>
       </c>
       <c r="E17" s="3">
-        <v>136300</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
+        <v>360000</v>
+      </c>
+      <c r="F17" s="3">
+        <v>133000</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -944,20 +970,23 @@
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>19100</v>
+        <v>-147600</v>
       </c>
       <c r="E18" s="3">
-        <v>51400</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
+        <v>18600</v>
+      </c>
+      <c r="F18" s="3">
+        <v>50100</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -971,9 +1000,12 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,19 +1017,20 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>17300</v>
+        <v>5600</v>
       </c>
       <c r="E20" s="3">
-        <v>6200</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
+        <v>16800</v>
+      </c>
+      <c r="F20" s="3">
+        <v>6000</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1011,20 +1044,23 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>38200</v>
+        <v>-140100</v>
       </c>
       <c r="E21" s="3">
-        <v>58800</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
+        <v>37300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>57400</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1038,20 +1074,23 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>7600</v>
+        <v>2800</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
+        <v>7400</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1065,20 +1104,23 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>28700</v>
+        <v>-144800</v>
       </c>
       <c r="E23" s="3">
-        <v>57500</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>3</v>
+        <v>28000</v>
+      </c>
+      <c r="F23" s="3">
+        <v>56100</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1092,20 +1134,23 @@
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>11200</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>3600</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
+        <v>10900</v>
+      </c>
+      <c r="F24" s="3">
+        <v>3500</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
@@ -1119,9 +1164,12 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1146,20 +1194,23 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>17600</v>
+        <v>-144800</v>
       </c>
       <c r="E26" s="3">
-        <v>53900</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>3</v>
+        <v>17100</v>
+      </c>
+      <c r="F26" s="3">
+        <v>52600</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1173,20 +1224,23 @@
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>17600</v>
+        <v>-144800</v>
       </c>
       <c r="E27" s="3">
-        <v>53900</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>3</v>
+        <v>17100</v>
+      </c>
+      <c r="F27" s="3">
+        <v>52600</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1200,9 +1254,12 @@
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1227,9 +1284,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1254,9 +1314,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1281,9 +1344,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1308,20 +1374,23 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-17300</v>
+        <v>-5600</v>
       </c>
       <c r="E32" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
+        <v>-16800</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-6000</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1335,20 +1404,23 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>17600</v>
+        <v>-144800</v>
       </c>
       <c r="E33" s="3">
-        <v>53900</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>3</v>
+        <v>17100</v>
+      </c>
+      <c r="F33" s="3">
+        <v>52600</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1362,9 +1434,12 @@
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1389,20 +1464,23 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>17600</v>
+        <v>-144800</v>
       </c>
       <c r="E35" s="3">
-        <v>53900</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>3</v>
+        <v>17100</v>
+      </c>
+      <c r="F35" s="3">
+        <v>52600</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1416,26 +1494,29 @@
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1448,9 +1529,12 @@
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,8 +1546,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,19 +1560,20 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>37200</v>
+        <v>73200</v>
       </c>
       <c r="E41" s="3">
-        <v>25300</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
+        <v>36300</v>
+      </c>
+      <c r="F41" s="3">
+        <v>24700</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1501,20 +1587,23 @@
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="E42" s="3">
-        <v>12900</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>12600</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1528,20 +1617,23 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>22700</v>
+        <v>22600</v>
       </c>
       <c r="E43" s="3">
-        <v>4700</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
+        <v>22100</v>
+      </c>
+      <c r="F43" s="3">
+        <v>4600</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1555,20 +1647,23 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>84000</v>
+        <v>27500</v>
       </c>
       <c r="E44" s="3">
-        <v>37300</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
+        <v>82100</v>
+      </c>
+      <c r="F44" s="3">
+        <v>36400</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -1582,20 +1677,23 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>52500</v>
+        <v>7000</v>
       </c>
       <c r="E45" s="3">
-        <v>89100</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
+        <v>51300</v>
+      </c>
+      <c r="F45" s="3">
+        <v>87000</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1609,20 +1707,23 @@
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>196300</v>
+        <v>131900</v>
       </c>
       <c r="E46" s="3">
-        <v>169200</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
+        <v>191800</v>
+      </c>
+      <c r="F46" s="3">
+        <v>165300</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1636,9 +1737,12 @@
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1663,21 +1767,24 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4000</v>
+        <v>6400</v>
       </c>
       <c r="E48" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F48" s="3">
         <v>2600</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1690,9 +1797,12 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1717,9 +1827,12 @@
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1744,9 +1857,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1771,20 +1887,23 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>700</v>
+      </c>
+      <c r="E52" s="3">
         <v>900</v>
       </c>
-      <c r="E52" s="3">
-        <v>800</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
+      <c r="F52" s="3">
+        <v>700</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -1798,9 +1917,12 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1825,20 +1947,23 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>201300</v>
+        <v>139000</v>
       </c>
       <c r="E54" s="3">
-        <v>172600</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
+        <v>196600</v>
+      </c>
+      <c r="F54" s="3">
+        <v>168600</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -1852,9 +1977,12 @@
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,8 +1994,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,19 +2008,20 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6800</v>
+        <v>13900</v>
       </c>
       <c r="E57" s="3">
-        <v>7200</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
+        <v>6600</v>
+      </c>
+      <c r="F57" s="3">
+        <v>7100</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -1905,20 +2035,23 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>150500</v>
+        <v>17900</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+        <v>147000</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -1932,20 +2065,23 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>9400</v>
+        <v>8200</v>
       </c>
       <c r="E59" s="3">
-        <v>42400</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
+        <v>9200</v>
+      </c>
+      <c r="F59" s="3">
+        <v>41400</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -1959,20 +2095,23 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>166700</v>
+        <v>40000</v>
       </c>
       <c r="E60" s="3">
-        <v>49600</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
+        <v>162800</v>
+      </c>
+      <c r="F60" s="3">
+        <v>48500</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -1986,9 +2125,12 @@
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2013,36 +2155,42 @@
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+        <v>1900</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2067,9 +2215,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2094,9 +2245,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2121,20 +2275,23 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>166700</v>
+        <v>41900</v>
       </c>
       <c r="E66" s="3">
-        <v>49600</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
+        <v>162800</v>
+      </c>
+      <c r="F66" s="3">
+        <v>48500</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2148,9 +2305,12 @@
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,8 +2322,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2188,9 +2349,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2215,9 +2379,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2242,9 +2409,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2269,20 +2439,23 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>21700</v>
+        <v>-123800</v>
       </c>
       <c r="E72" s="3">
-        <v>62200</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
+        <v>21200</v>
+      </c>
+      <c r="F72" s="3">
+        <v>60800</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2296,9 +2469,12 @@
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2323,9 +2499,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2350,9 +2529,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2377,20 +2559,23 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>34600</v>
+        <v>97100</v>
       </c>
       <c r="E76" s="3">
-        <v>123000</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
+        <v>33800</v>
+      </c>
+      <c r="F76" s="3">
+        <v>120200</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2404,9 +2589,12 @@
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2431,26 +2619,29 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2463,20 +2654,23 @@
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>17600</v>
+        <v>-144800</v>
       </c>
       <c r="E81" s="3">
-        <v>53900</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>3</v>
+        <v>17100</v>
+      </c>
+      <c r="F81" s="3">
+        <v>52600</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2490,9 +2684,12 @@
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,8 +2701,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2513,11 +2711,11 @@
         <v>1900</v>
       </c>
       <c r="E83" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F83" s="3">
         <v>1300</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2530,9 +2728,12 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2557,9 +2758,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2584,9 +2788,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2611,9 +2818,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2638,9 +2848,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2665,20 +2878,23 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-39200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1800</v>
       </c>
-      <c r="E89" s="3">
-        <v>13100</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
+      <c r="F89" s="3">
+        <v>12800</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2692,9 +2908,12 @@
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,20 +2925,21 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3600</v>
+        <v>-1200</v>
       </c>
       <c r="E91" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1800</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2732,9 +2952,12 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2759,9 +2982,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2786,20 +3012,23 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>12000</v>
+        <v>-2300</v>
       </c>
       <c r="E94" s="3">
-        <v>-12500</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
+        <v>11800</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-12100</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -2813,9 +3042,12 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,8 +3059,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2853,9 +3086,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2880,9 +3116,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2907,9 +3146,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2934,20 +3176,23 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>42400</v>
+        <v>38900</v>
       </c>
       <c r="E100" s="3">
-        <v>21500</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
+        <v>41300</v>
+      </c>
+      <c r="F100" s="3">
+        <v>21000</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -2961,21 +3206,24 @@
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E101" s="3">
         <v>300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
       </c>
@@ -2988,20 +3236,23 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>52900</v>
+        <v>-2900</v>
       </c>
       <c r="E102" s="3">
-        <v>22000</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
+        <v>51600</v>
+      </c>
+      <c r="F102" s="3">
+        <v>21400</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
@@ -3015,7 +3266,10 @@
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CAN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CAN_YR_FIN.xlsx
@@ -715,13 +715,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>199100</v>
+        <v>206600</v>
       </c>
       <c r="E8" s="3">
-        <v>378600</v>
+        <v>392900</v>
       </c>
       <c r="F8" s="3">
-        <v>183100</v>
+        <v>190000</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -745,13 +745,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>271300</v>
+        <v>281500</v>
       </c>
       <c r="E9" s="3">
-        <v>307500</v>
+        <v>319100</v>
       </c>
       <c r="F9" s="3">
-        <v>98500</v>
+        <v>102200</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -775,13 +775,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>-72200</v>
+        <v>-74900</v>
       </c>
       <c r="E10" s="3">
-        <v>71100</v>
+        <v>73800</v>
       </c>
       <c r="F10" s="3">
-        <v>84600</v>
+        <v>87800</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -819,13 +819,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>23100</v>
+        <v>24000</v>
       </c>
       <c r="E12" s="3">
-        <v>25800</v>
+        <v>26800</v>
       </c>
       <c r="F12" s="3">
-        <v>13400</v>
+        <v>13900</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
@@ -950,13 +950,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>346700</v>
+        <v>359800</v>
       </c>
       <c r="E17" s="3">
-        <v>360000</v>
+        <v>373600</v>
       </c>
       <c r="F17" s="3">
-        <v>133000</v>
+        <v>138000</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -980,13 +980,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-147600</v>
+        <v>-153200</v>
       </c>
       <c r="E18" s="3">
-        <v>18600</v>
+        <v>19300</v>
       </c>
       <c r="F18" s="3">
-        <v>50100</v>
+        <v>52000</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -1024,13 +1024,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="E20" s="3">
-        <v>16800</v>
+        <v>17500</v>
       </c>
       <c r="F20" s="3">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1054,13 +1054,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-140100</v>
+        <v>-145300</v>
       </c>
       <c r="E21" s="3">
-        <v>37300</v>
+        <v>38700</v>
       </c>
       <c r="F21" s="3">
-        <v>57400</v>
+        <v>59500</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1084,10 +1084,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="E22" s="3">
-        <v>7400</v>
+        <v>7700</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-144800</v>
+        <v>-150200</v>
       </c>
       <c r="E23" s="3">
-        <v>28000</v>
+        <v>29100</v>
       </c>
       <c r="F23" s="3">
-        <v>56100</v>
+        <v>58200</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1147,10 +1147,10 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>10900</v>
+        <v>11300</v>
       </c>
       <c r="F24" s="3">
-        <v>3500</v>
+        <v>3700</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
@@ -1204,13 +1204,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-144800</v>
+        <v>-150200</v>
       </c>
       <c r="E26" s="3">
-        <v>17100</v>
+        <v>17800</v>
       </c>
       <c r="F26" s="3">
-        <v>52600</v>
+        <v>54600</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1234,13 +1234,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-144800</v>
+        <v>-150200</v>
       </c>
       <c r="E27" s="3">
-        <v>17100</v>
+        <v>17800</v>
       </c>
       <c r="F27" s="3">
-        <v>52600</v>
+        <v>54600</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1384,13 +1384,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5600</v>
+        <v>-5800</v>
       </c>
       <c r="E32" s="3">
-        <v>-16800</v>
+        <v>-17500</v>
       </c>
       <c r="F32" s="3">
-        <v>-6000</v>
+        <v>-6200</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1414,13 +1414,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-144800</v>
+        <v>-150200</v>
       </c>
       <c r="E33" s="3">
-        <v>17100</v>
+        <v>17800</v>
       </c>
       <c r="F33" s="3">
-        <v>52600</v>
+        <v>54600</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1474,13 +1474,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-144800</v>
+        <v>-150200</v>
       </c>
       <c r="E35" s="3">
-        <v>17100</v>
+        <v>17800</v>
       </c>
       <c r="F35" s="3">
-        <v>52600</v>
+        <v>54600</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1567,13 +1567,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>73200</v>
+        <v>75900</v>
       </c>
       <c r="E41" s="3">
-        <v>36300</v>
+        <v>37600</v>
       </c>
       <c r="F41" s="3">
-        <v>24700</v>
+        <v>25600</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1597,13 +1597,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>12600</v>
+        <v>13100</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1627,13 +1627,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>22600</v>
+        <v>23400</v>
       </c>
       <c r="E43" s="3">
-        <v>22100</v>
+        <v>22900</v>
       </c>
       <c r="F43" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1657,13 +1657,13 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>27500</v>
+        <v>28500</v>
       </c>
       <c r="E44" s="3">
-        <v>82100</v>
+        <v>85100</v>
       </c>
       <c r="F44" s="3">
-        <v>36400</v>
+        <v>37700</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -1687,13 +1687,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>7000</v>
+        <v>7300</v>
       </c>
       <c r="E45" s="3">
-        <v>51300</v>
+        <v>53100</v>
       </c>
       <c r="F45" s="3">
-        <v>87000</v>
+        <v>90100</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1717,13 +1717,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>131900</v>
+        <v>136600</v>
       </c>
       <c r="E46" s="3">
-        <v>191800</v>
+        <v>198700</v>
       </c>
       <c r="F46" s="3">
-        <v>165300</v>
+        <v>171300</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1777,13 +1777,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6400</v>
+        <v>6600</v>
       </c>
       <c r="E48" s="3">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="F48" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1897,13 +1897,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E52" s="3">
         <v>900</v>
       </c>
       <c r="F52" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -1957,13 +1957,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>139000</v>
+        <v>144000</v>
       </c>
       <c r="E54" s="3">
-        <v>196600</v>
+        <v>203700</v>
       </c>
       <c r="F54" s="3">
-        <v>168600</v>
+        <v>174700</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -2015,13 +2015,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>13900</v>
+        <v>14400</v>
       </c>
       <c r="E57" s="3">
-        <v>6600</v>
+        <v>6900</v>
       </c>
       <c r="F57" s="3">
-        <v>7100</v>
+        <v>7300</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -2045,10 +2045,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>17900</v>
+        <v>18500</v>
       </c>
       <c r="E58" s="3">
-        <v>147000</v>
+        <v>152300</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -2075,13 +2075,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8200</v>
+        <v>8500</v>
       </c>
       <c r="E59" s="3">
-        <v>9200</v>
+        <v>9500</v>
       </c>
       <c r="F59" s="3">
-        <v>41400</v>
+        <v>42900</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2105,13 +2105,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>40000</v>
+        <v>41400</v>
       </c>
       <c r="E60" s="3">
-        <v>162800</v>
+        <v>168700</v>
       </c>
       <c r="F60" s="3">
-        <v>48500</v>
+        <v>50200</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2285,13 +2285,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>41900</v>
+        <v>43400</v>
       </c>
       <c r="E66" s="3">
-        <v>162800</v>
+        <v>168700</v>
       </c>
       <c r="F66" s="3">
-        <v>48500</v>
+        <v>50200</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2449,13 +2449,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-123800</v>
+        <v>-128300</v>
       </c>
       <c r="E72" s="3">
-        <v>21200</v>
+        <v>22000</v>
       </c>
       <c r="F72" s="3">
-        <v>60800</v>
+        <v>63000</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2569,13 +2569,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>97100</v>
+        <v>100600</v>
       </c>
       <c r="E76" s="3">
-        <v>33800</v>
+        <v>35000</v>
       </c>
       <c r="F76" s="3">
-        <v>120200</v>
+        <v>124500</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2664,13 +2664,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-144800</v>
+        <v>-150200</v>
       </c>
       <c r="E81" s="3">
-        <v>17100</v>
+        <v>17800</v>
       </c>
       <c r="F81" s="3">
-        <v>52600</v>
+        <v>54600</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2708,10 +2708,10 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1900</v>
-      </c>
-      <c r="E83" s="3">
-        <v>1800</v>
       </c>
       <c r="F83" s="3">
         <v>1300</v>
@@ -2888,13 +2888,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-39200</v>
+        <v>-40700</v>
       </c>
       <c r="E89" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="F89" s="3">
-        <v>12800</v>
+        <v>13200</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2935,7 +2935,7 @@
         <v>-1200</v>
       </c>
       <c r="E91" s="3">
-        <v>-3500</v>
+        <v>-3600</v>
       </c>
       <c r="F91" s="3">
         <v>-1800</v>
@@ -3022,13 +3022,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="E94" s="3">
-        <v>11800</v>
+        <v>12200</v>
       </c>
       <c r="F94" s="3">
-        <v>-12100</v>
+        <v>-12600</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -3186,13 +3186,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>38900</v>
+        <v>40400</v>
       </c>
       <c r="E100" s="3">
-        <v>41300</v>
+        <v>42900</v>
       </c>
       <c r="F100" s="3">
-        <v>21000</v>
+        <v>21800</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -3246,13 +3246,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2900</v>
+        <v>-3000</v>
       </c>
       <c r="E102" s="3">
-        <v>51600</v>
+        <v>53500</v>
       </c>
       <c r="F102" s="3">
-        <v>21400</v>
+        <v>22200</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/CAN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CAN_YR_FIN.xlsx
@@ -715,13 +715,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>206600</v>
+        <v>216400</v>
       </c>
       <c r="E8" s="3">
-        <v>392900</v>
+        <v>411500</v>
       </c>
       <c r="F8" s="3">
-        <v>190000</v>
+        <v>199000</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -745,13 +745,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>281500</v>
+        <v>294900</v>
       </c>
       <c r="E9" s="3">
-        <v>319100</v>
+        <v>334200</v>
       </c>
       <c r="F9" s="3">
-        <v>102200</v>
+        <v>107000</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -775,13 +775,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>-74900</v>
+        <v>-78500</v>
       </c>
       <c r="E10" s="3">
-        <v>73800</v>
+        <v>77300</v>
       </c>
       <c r="F10" s="3">
-        <v>87800</v>
+        <v>91900</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -819,13 +819,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>24000</v>
+        <v>25100</v>
       </c>
       <c r="E12" s="3">
-        <v>26800</v>
+        <v>28100</v>
       </c>
       <c r="F12" s="3">
-        <v>13900</v>
+        <v>14600</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
@@ -909,13 +909,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="E15" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="F15" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>3</v>
@@ -950,13 +950,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>359800</v>
+        <v>376800</v>
       </c>
       <c r="E17" s="3">
-        <v>373600</v>
+        <v>391300</v>
       </c>
       <c r="F17" s="3">
-        <v>138000</v>
+        <v>144500</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -980,13 +980,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-153200</v>
+        <v>-160400</v>
       </c>
       <c r="E18" s="3">
-        <v>19300</v>
+        <v>20200</v>
       </c>
       <c r="F18" s="3">
-        <v>52000</v>
+        <v>54500</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -1024,13 +1024,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5800</v>
+        <v>6100</v>
       </c>
       <c r="E20" s="3">
-        <v>17500</v>
+        <v>18300</v>
       </c>
       <c r="F20" s="3">
-        <v>6200</v>
+        <v>6500</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1054,13 +1054,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-145300</v>
+        <v>-152200</v>
       </c>
       <c r="E21" s="3">
-        <v>38700</v>
+        <v>40500</v>
       </c>
       <c r="F21" s="3">
-        <v>59500</v>
+        <v>62400</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1084,10 +1084,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="E22" s="3">
-        <v>7700</v>
+        <v>8100</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-150200</v>
+        <v>-157400</v>
       </c>
       <c r="E23" s="3">
-        <v>29100</v>
+        <v>30500</v>
       </c>
       <c r="F23" s="3">
-        <v>58200</v>
+        <v>61000</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1147,10 +1147,10 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>11300</v>
+        <v>11800</v>
       </c>
       <c r="F24" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
@@ -1204,13 +1204,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-150200</v>
+        <v>-157400</v>
       </c>
       <c r="E26" s="3">
-        <v>17800</v>
+        <v>18600</v>
       </c>
       <c r="F26" s="3">
-        <v>54600</v>
+        <v>57200</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1234,13 +1234,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-150200</v>
+        <v>-157400</v>
       </c>
       <c r="E27" s="3">
-        <v>17800</v>
+        <v>18600</v>
       </c>
       <c r="F27" s="3">
-        <v>54600</v>
+        <v>57200</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1384,13 +1384,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5800</v>
+        <v>-6100</v>
       </c>
       <c r="E32" s="3">
-        <v>-17500</v>
+        <v>-18300</v>
       </c>
       <c r="F32" s="3">
-        <v>-6200</v>
+        <v>-6500</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1414,13 +1414,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-150200</v>
+        <v>-157400</v>
       </c>
       <c r="E33" s="3">
-        <v>17800</v>
+        <v>18600</v>
       </c>
       <c r="F33" s="3">
-        <v>54600</v>
+        <v>57200</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1474,13 +1474,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-150200</v>
+        <v>-157400</v>
       </c>
       <c r="E35" s="3">
-        <v>17800</v>
+        <v>18600</v>
       </c>
       <c r="F35" s="3">
-        <v>54600</v>
+        <v>57200</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1567,13 +1567,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>75900</v>
+        <v>79500</v>
       </c>
       <c r="E41" s="3">
-        <v>37600</v>
+        <v>39400</v>
       </c>
       <c r="F41" s="3">
-        <v>25600</v>
+        <v>26800</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1597,13 +1597,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>13100</v>
+        <v>13700</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1627,13 +1627,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>23400</v>
+        <v>24500</v>
       </c>
       <c r="E43" s="3">
-        <v>22900</v>
+        <v>24000</v>
       </c>
       <c r="F43" s="3">
-        <v>4700</v>
+        <v>5000</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1657,13 +1657,13 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>28500</v>
+        <v>29800</v>
       </c>
       <c r="E44" s="3">
-        <v>85100</v>
+        <v>89100</v>
       </c>
       <c r="F44" s="3">
-        <v>37700</v>
+        <v>39500</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -1687,13 +1687,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>7300</v>
+        <v>7600</v>
       </c>
       <c r="E45" s="3">
-        <v>53100</v>
+        <v>55700</v>
       </c>
       <c r="F45" s="3">
-        <v>90100</v>
+        <v>94400</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1717,13 +1717,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>136600</v>
+        <v>143100</v>
       </c>
       <c r="E46" s="3">
-        <v>198700</v>
+        <v>208200</v>
       </c>
       <c r="F46" s="3">
-        <v>171300</v>
+        <v>179400</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1777,13 +1777,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6600</v>
+        <v>6900</v>
       </c>
       <c r="E48" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="F48" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1900,7 +1900,7 @@
         <v>800</v>
       </c>
       <c r="E52" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F52" s="3">
         <v>800</v>
@@ -1957,13 +1957,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>144000</v>
+        <v>150800</v>
       </c>
       <c r="E54" s="3">
-        <v>203700</v>
+        <v>213400</v>
       </c>
       <c r="F54" s="3">
-        <v>174700</v>
+        <v>183000</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -2015,13 +2015,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>14400</v>
+        <v>15100</v>
       </c>
       <c r="E57" s="3">
-        <v>6900</v>
+        <v>7200</v>
       </c>
       <c r="F57" s="3">
-        <v>7300</v>
+        <v>7700</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -2045,10 +2045,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>18500</v>
+        <v>19400</v>
       </c>
       <c r="E58" s="3">
-        <v>152300</v>
+        <v>159600</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -2075,13 +2075,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8500</v>
+        <v>8900</v>
       </c>
       <c r="E59" s="3">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="F59" s="3">
-        <v>42900</v>
+        <v>45000</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2105,13 +2105,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>41400</v>
+        <v>43400</v>
       </c>
       <c r="E60" s="3">
-        <v>168700</v>
+        <v>176700</v>
       </c>
       <c r="F60" s="3">
-        <v>50200</v>
+        <v>52600</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2165,7 +2165,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>3</v>
@@ -2285,13 +2285,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>43400</v>
+        <v>45400</v>
       </c>
       <c r="E66" s="3">
-        <v>168700</v>
+        <v>176700</v>
       </c>
       <c r="F66" s="3">
-        <v>50200</v>
+        <v>52600</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2449,13 +2449,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-128300</v>
+        <v>-134400</v>
       </c>
       <c r="E72" s="3">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="F72" s="3">
-        <v>63000</v>
+        <v>66000</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2569,13 +2569,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>100600</v>
+        <v>105400</v>
       </c>
       <c r="E76" s="3">
-        <v>35000</v>
+        <v>36700</v>
       </c>
       <c r="F76" s="3">
-        <v>124500</v>
+        <v>130400</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2664,13 +2664,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-150200</v>
+        <v>-157400</v>
       </c>
       <c r="E81" s="3">
-        <v>17800</v>
+        <v>18600</v>
       </c>
       <c r="F81" s="3">
-        <v>54600</v>
+        <v>57200</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2708,13 +2708,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E83" s="3">
         <v>2000</v>
       </c>
-      <c r="E83" s="3">
-        <v>1900</v>
-      </c>
       <c r="F83" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -2888,13 +2888,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-40700</v>
+        <v>-42600</v>
       </c>
       <c r="E89" s="3">
         <v>-1900</v>
       </c>
       <c r="F89" s="3">
-        <v>13200</v>
+        <v>13900</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2932,13 +2932,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="E91" s="3">
-        <v>-3600</v>
+        <v>-3800</v>
       </c>
       <c r="F91" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -3022,13 +3022,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="E94" s="3">
-        <v>12200</v>
+        <v>12800</v>
       </c>
       <c r="F94" s="3">
-        <v>-12600</v>
+        <v>-13200</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -3186,13 +3186,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>40400</v>
+        <v>42300</v>
       </c>
       <c r="E100" s="3">
-        <v>42900</v>
+        <v>44900</v>
       </c>
       <c r="F100" s="3">
-        <v>21800</v>
+        <v>22800</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -3246,13 +3246,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="E102" s="3">
-        <v>53500</v>
+        <v>56100</v>
       </c>
       <c r="F102" s="3">
-        <v>22200</v>
+        <v>23300</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/CAN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CAN_YR_FIN.xlsx
@@ -715,13 +715,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>216400</v>
+        <v>217300</v>
       </c>
       <c r="E8" s="3">
-        <v>411500</v>
+        <v>413300</v>
       </c>
       <c r="F8" s="3">
-        <v>199000</v>
+        <v>199800</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -745,13 +745,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>294900</v>
+        <v>296200</v>
       </c>
       <c r="E9" s="3">
-        <v>334200</v>
+        <v>335700</v>
       </c>
       <c r="F9" s="3">
-        <v>107000</v>
+        <v>107500</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -775,13 +775,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>-78500</v>
+        <v>-78800</v>
       </c>
       <c r="E10" s="3">
-        <v>77300</v>
+        <v>77600</v>
       </c>
       <c r="F10" s="3">
-        <v>91900</v>
+        <v>92300</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -819,13 +819,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>25100</v>
+        <v>25300</v>
       </c>
       <c r="E12" s="3">
-        <v>28100</v>
+        <v>28200</v>
       </c>
       <c r="F12" s="3">
-        <v>14600</v>
+        <v>14700</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
@@ -950,13 +950,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>376800</v>
+        <v>378500</v>
       </c>
       <c r="E17" s="3">
-        <v>391300</v>
+        <v>393000</v>
       </c>
       <c r="F17" s="3">
-        <v>144500</v>
+        <v>145100</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -980,13 +980,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-160400</v>
+        <v>-161100</v>
       </c>
       <c r="E18" s="3">
-        <v>20200</v>
+        <v>20300</v>
       </c>
       <c r="F18" s="3">
-        <v>54500</v>
+        <v>54700</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -1027,10 +1027,10 @@
         <v>6100</v>
       </c>
       <c r="E20" s="3">
-        <v>18300</v>
+        <v>18400</v>
       </c>
       <c r="F20" s="3">
-        <v>6500</v>
+        <v>6600</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1054,13 +1054,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-152200</v>
+        <v>-152900</v>
       </c>
       <c r="E21" s="3">
-        <v>40500</v>
+        <v>40700</v>
       </c>
       <c r="F21" s="3">
-        <v>62400</v>
+        <v>62700</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1084,7 +1084,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="E22" s="3">
         <v>8100</v>
@@ -1114,13 +1114,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-157400</v>
+        <v>-158100</v>
       </c>
       <c r="E23" s="3">
-        <v>30500</v>
+        <v>30600</v>
       </c>
       <c r="F23" s="3">
-        <v>61000</v>
+        <v>61300</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>11800</v>
+        <v>11900</v>
       </c>
       <c r="F24" s="3">
         <v>3800</v>
@@ -1204,13 +1204,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-157400</v>
+        <v>-158100</v>
       </c>
       <c r="E26" s="3">
-        <v>18600</v>
+        <v>18700</v>
       </c>
       <c r="F26" s="3">
-        <v>57200</v>
+        <v>57400</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1234,13 +1234,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-157400</v>
+        <v>-158100</v>
       </c>
       <c r="E27" s="3">
-        <v>18600</v>
+        <v>18700</v>
       </c>
       <c r="F27" s="3">
-        <v>57200</v>
+        <v>57400</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1387,10 +1387,10 @@
         <v>-6100</v>
       </c>
       <c r="E32" s="3">
-        <v>-18300</v>
+        <v>-18400</v>
       </c>
       <c r="F32" s="3">
-        <v>-6500</v>
+        <v>-6600</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1414,13 +1414,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-157400</v>
+        <v>-158100</v>
       </c>
       <c r="E33" s="3">
-        <v>18600</v>
+        <v>18700</v>
       </c>
       <c r="F33" s="3">
-        <v>57200</v>
+        <v>57400</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1474,13 +1474,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-157400</v>
+        <v>-158100</v>
       </c>
       <c r="E35" s="3">
-        <v>18600</v>
+        <v>18700</v>
       </c>
       <c r="F35" s="3">
-        <v>57200</v>
+        <v>57400</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1567,13 +1567,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>79500</v>
+        <v>79800</v>
       </c>
       <c r="E41" s="3">
-        <v>39400</v>
+        <v>39600</v>
       </c>
       <c r="F41" s="3">
-        <v>26800</v>
+        <v>27000</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1603,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>13700</v>
+        <v>13800</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1627,10 +1627,10 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>24500</v>
+        <v>24600</v>
       </c>
       <c r="E43" s="3">
-        <v>24000</v>
+        <v>24100</v>
       </c>
       <c r="F43" s="3">
         <v>5000</v>
@@ -1657,13 +1657,13 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>29800</v>
+        <v>30000</v>
       </c>
       <c r="E44" s="3">
-        <v>89100</v>
+        <v>89500</v>
       </c>
       <c r="F44" s="3">
-        <v>39500</v>
+        <v>39700</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -1687,13 +1687,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>7600</v>
+        <v>7700</v>
       </c>
       <c r="E45" s="3">
-        <v>55700</v>
+        <v>55900</v>
       </c>
       <c r="F45" s="3">
-        <v>94400</v>
+        <v>94800</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1717,13 +1717,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>143100</v>
+        <v>143700</v>
       </c>
       <c r="E46" s="3">
-        <v>208200</v>
+        <v>209100</v>
       </c>
       <c r="F46" s="3">
-        <v>179400</v>
+        <v>180200</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1780,7 +1780,7 @@
         <v>6900</v>
       </c>
       <c r="E48" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="F48" s="3">
         <v>2800</v>
@@ -1957,13 +1957,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>150800</v>
+        <v>151500</v>
       </c>
       <c r="E54" s="3">
-        <v>213400</v>
+        <v>214300</v>
       </c>
       <c r="F54" s="3">
-        <v>183000</v>
+        <v>183800</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -2045,10 +2045,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>19400</v>
+        <v>19500</v>
       </c>
       <c r="E58" s="3">
-        <v>159600</v>
+        <v>160300</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -2075,13 +2075,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8900</v>
+        <v>9000</v>
       </c>
       <c r="E59" s="3">
         <v>10000</v>
       </c>
       <c r="F59" s="3">
-        <v>45000</v>
+        <v>45200</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2105,13 +2105,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>43400</v>
+        <v>43600</v>
       </c>
       <c r="E60" s="3">
-        <v>176700</v>
+        <v>177500</v>
       </c>
       <c r="F60" s="3">
-        <v>52600</v>
+        <v>52900</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2285,13 +2285,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>45400</v>
+        <v>45600</v>
       </c>
       <c r="E66" s="3">
-        <v>176700</v>
+        <v>177500</v>
       </c>
       <c r="F66" s="3">
-        <v>52600</v>
+        <v>52900</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2449,13 +2449,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-134400</v>
+        <v>-134900</v>
       </c>
       <c r="E72" s="3">
-        <v>23000</v>
+        <v>23100</v>
       </c>
       <c r="F72" s="3">
-        <v>66000</v>
+        <v>66200</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2569,13 +2569,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>105400</v>
+        <v>105800</v>
       </c>
       <c r="E76" s="3">
-        <v>36700</v>
+        <v>36800</v>
       </c>
       <c r="F76" s="3">
-        <v>130400</v>
+        <v>131000</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2664,13 +2664,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-157400</v>
+        <v>-158100</v>
       </c>
       <c r="E81" s="3">
-        <v>18600</v>
+        <v>18700</v>
       </c>
       <c r="F81" s="3">
-        <v>57200</v>
+        <v>57400</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2888,7 +2888,7 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-42600</v>
+        <v>-42800</v>
       </c>
       <c r="E89" s="3">
         <v>-1900</v>
@@ -3028,7 +3028,7 @@
         <v>12800</v>
       </c>
       <c r="F94" s="3">
-        <v>-13200</v>
+        <v>-13300</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -3186,13 +3186,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>42300</v>
+        <v>42500</v>
       </c>
       <c r="E100" s="3">
-        <v>44900</v>
+        <v>45100</v>
       </c>
       <c r="F100" s="3">
-        <v>22800</v>
+        <v>22900</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -3249,10 +3249,10 @@
         <v>-3100</v>
       </c>
       <c r="E102" s="3">
-        <v>56100</v>
+        <v>56300</v>
       </c>
       <c r="F102" s="3">
-        <v>23300</v>
+        <v>23400</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/CAN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CAN_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="92">
   <si>
     <t>CAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,37 +665,37 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,23 +708,26 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>217300</v>
+        <v>69800</v>
       </c>
       <c r="E8" s="3">
-        <v>413300</v>
+        <v>221900</v>
       </c>
       <c r="F8" s="3">
-        <v>199800</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
+        <v>422100</v>
+      </c>
+      <c r="G8" s="3">
+        <v>204100</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -738,23 +741,26 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>296200</v>
+        <v>64000</v>
       </c>
       <c r="E9" s="3">
-        <v>335700</v>
+        <v>302400</v>
       </c>
       <c r="F9" s="3">
-        <v>107500</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
+        <v>342800</v>
+      </c>
+      <c r="G9" s="3">
+        <v>109800</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -768,23 +774,26 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>-78800</v>
+        <v>5900</v>
       </c>
       <c r="E10" s="3">
-        <v>77600</v>
+        <v>-80500</v>
       </c>
       <c r="F10" s="3">
-        <v>92300</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
+        <v>79300</v>
+      </c>
+      <c r="G10" s="3">
+        <v>94300</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -798,9 +807,12 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,22 +825,23 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>25300</v>
+        <v>21200</v>
       </c>
       <c r="E12" s="3">
-        <v>28200</v>
+        <v>25800</v>
       </c>
       <c r="F12" s="3">
-        <v>14700</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
+        <v>28800</v>
+      </c>
+      <c r="G12" s="3">
+        <v>15000</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -842,9 +855,12 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,24 +888,27 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>100</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
@@ -902,9 +921,12 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -915,11 +937,11 @@
         <v>1800</v>
       </c>
       <c r="F15" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G15" s="3">
         <v>1400</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
       </c>
@@ -932,9 +954,12 @@
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,22 +969,23 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>378500</v>
+        <v>109500</v>
       </c>
       <c r="E17" s="3">
-        <v>393000</v>
+        <v>386500</v>
       </c>
       <c r="F17" s="3">
-        <v>145100</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
+        <v>401300</v>
+      </c>
+      <c r="G17" s="3">
+        <v>148200</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -973,23 +999,26 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-161100</v>
+        <v>-39600</v>
       </c>
       <c r="E18" s="3">
-        <v>20300</v>
+        <v>-164500</v>
       </c>
       <c r="F18" s="3">
-        <v>54700</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
+        <v>20800</v>
+      </c>
+      <c r="G18" s="3">
+        <v>55900</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1003,9 +1032,12 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,22 +1050,23 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>6100</v>
+        <v>6600</v>
       </c>
       <c r="E20" s="3">
-        <v>18400</v>
+        <v>6300</v>
       </c>
       <c r="F20" s="3">
-        <v>6600</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
+        <v>18800</v>
+      </c>
+      <c r="G20" s="3">
+        <v>6700</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1047,23 +1080,26 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-152900</v>
+        <v>-31200</v>
       </c>
       <c r="E21" s="3">
-        <v>40700</v>
+        <v>-156100</v>
       </c>
       <c r="F21" s="3">
-        <v>62700</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
+        <v>41600</v>
+      </c>
+      <c r="G21" s="3">
+        <v>64000</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1077,23 +1113,26 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>600</v>
+      </c>
+      <c r="E22" s="3">
         <v>3100</v>
       </c>
-      <c r="E22" s="3">
-        <v>8100</v>
-      </c>
       <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
+        <v>8300</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1107,23 +1146,26 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-158100</v>
+        <v>-33600</v>
       </c>
       <c r="E23" s="3">
-        <v>30600</v>
+        <v>-161400</v>
       </c>
       <c r="F23" s="3">
-        <v>61300</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
+        <v>31200</v>
+      </c>
+      <c r="G23" s="3">
+        <v>62600</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1137,9 +1179,12 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1147,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>11900</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>3800</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
+        <v>12100</v>
+      </c>
+      <c r="G24" s="3">
+        <v>3900</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1167,9 +1212,12 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,23 +1245,26 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-158100</v>
+        <v>-33600</v>
       </c>
       <c r="E26" s="3">
-        <v>18700</v>
+        <v>-161400</v>
       </c>
       <c r="F26" s="3">
-        <v>57400</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
+        <v>19100</v>
+      </c>
+      <c r="G26" s="3">
+        <v>58600</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1227,23 +1278,26 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-158100</v>
+        <v>-33600</v>
       </c>
       <c r="E27" s="3">
-        <v>18700</v>
+        <v>-161400</v>
       </c>
       <c r="F27" s="3">
-        <v>57400</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
+        <v>19100</v>
+      </c>
+      <c r="G27" s="3">
+        <v>58600</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1257,9 +1311,12 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,9 +1344,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1317,9 +1377,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,23 +1443,26 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-6100</v>
+        <v>-6600</v>
       </c>
       <c r="E32" s="3">
-        <v>-18400</v>
+        <v>-6300</v>
       </c>
       <c r="F32" s="3">
-        <v>-6600</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
+        <v>-18800</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-6700</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1407,23 +1476,26 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-158100</v>
+        <v>-33600</v>
       </c>
       <c r="E33" s="3">
-        <v>18700</v>
+        <v>-161400</v>
       </c>
       <c r="F33" s="3">
-        <v>57400</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
+        <v>19100</v>
+      </c>
+      <c r="G33" s="3">
+        <v>58600</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1437,9 +1509,12 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,23 +1542,26 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-158100</v>
+        <v>-33600</v>
       </c>
       <c r="E35" s="3">
-        <v>18700</v>
+        <v>-161400</v>
       </c>
       <c r="F35" s="3">
-        <v>57400</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
+        <v>19100</v>
+      </c>
+      <c r="G35" s="3">
+        <v>58600</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1497,29 +1575,32 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1532,9 +1613,12 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,22 +1646,23 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>79800</v>
+        <v>61000</v>
       </c>
       <c r="E41" s="3">
-        <v>39600</v>
+        <v>81500</v>
       </c>
       <c r="F41" s="3">
-        <v>27000</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
+        <v>40400</v>
+      </c>
+      <c r="G41" s="3">
+        <v>27500</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1590,23 +1676,26 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E42" s="3">
         <v>1700</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
       <c r="F42" s="3">
-        <v>13800</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>14000</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1620,23 +1709,26 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>25100</v>
+      </c>
+      <c r="F43" s="3">
         <v>24600</v>
       </c>
-      <c r="E43" s="3">
-        <v>24100</v>
-      </c>
-      <c r="F43" s="3">
-        <v>5000</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+      <c r="G43" s="3">
+        <v>5100</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1650,23 +1742,26 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>30000</v>
+        <v>35200</v>
       </c>
       <c r="E44" s="3">
-        <v>89500</v>
+        <v>30600</v>
       </c>
       <c r="F44" s="3">
-        <v>39700</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
+        <v>91400</v>
+      </c>
+      <c r="G44" s="3">
+        <v>40500</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1680,23 +1775,26 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>7700</v>
+        <v>33000</v>
       </c>
       <c r="E45" s="3">
-        <v>55900</v>
+        <v>7800</v>
       </c>
       <c r="F45" s="3">
-        <v>94800</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+        <v>57100</v>
+      </c>
+      <c r="G45" s="3">
+        <v>96800</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1710,23 +1808,26 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>143700</v>
+        <v>157100</v>
       </c>
       <c r="E46" s="3">
-        <v>209100</v>
+        <v>146800</v>
       </c>
       <c r="F46" s="3">
-        <v>180200</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
+        <v>213500</v>
+      </c>
+      <c r="G46" s="3">
+        <v>184000</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1740,53 +1841,59 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
         <v>0</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6900</v>
+        <v>4200</v>
       </c>
       <c r="E48" s="3">
-        <v>4300</v>
+        <v>7100</v>
       </c>
       <c r="F48" s="3">
-        <v>2800</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
+        <v>4400</v>
+      </c>
+      <c r="G48" s="3">
+        <v>2900</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1800,9 +1907,12 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1830,9 +1940,12 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,24 +2006,27 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>400</v>
+      </c>
+      <c r="E52" s="3">
         <v>800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>800</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1920,9 +2039,12 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,23 +2072,26 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>151500</v>
+        <v>161700</v>
       </c>
       <c r="E54" s="3">
-        <v>214300</v>
+        <v>154700</v>
       </c>
       <c r="F54" s="3">
-        <v>183800</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
+        <v>218800</v>
+      </c>
+      <c r="G54" s="3">
+        <v>187700</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -1980,9 +2105,12 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,22 +2138,23 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>15100</v>
+        <v>5800</v>
       </c>
       <c r="E57" s="3">
-        <v>7200</v>
+        <v>15500</v>
       </c>
       <c r="F57" s="3">
-        <v>7700</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+        <v>7400</v>
+      </c>
+      <c r="G57" s="3">
+        <v>7900</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2038,23 +2168,26 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>19500</v>
+        <v>7600</v>
       </c>
       <c r="E58" s="3">
-        <v>160300</v>
+        <v>19900</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+        <v>163700</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2068,23 +2201,26 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>9000</v>
+        <v>79000</v>
       </c>
       <c r="E59" s="3">
-        <v>10000</v>
+        <v>9200</v>
       </c>
       <c r="F59" s="3">
-        <v>45200</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+        <v>10200</v>
+      </c>
+      <c r="G59" s="3">
+        <v>46100</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2098,23 +2234,26 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>43600</v>
+        <v>92400</v>
       </c>
       <c r="E60" s="3">
-        <v>177500</v>
+        <v>44500</v>
       </c>
       <c r="F60" s="3">
-        <v>52900</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
+        <v>181200</v>
+      </c>
+      <c r="G60" s="3">
+        <v>54000</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2128,9 +2267,12 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2158,17 +2300,20 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
+        <v>1800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2100</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2185,12 +2330,15 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,23 +2432,26 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>45600</v>
+        <v>94200</v>
       </c>
       <c r="E66" s="3">
-        <v>177500</v>
+        <v>46600</v>
       </c>
       <c r="F66" s="3">
-        <v>52900</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
+        <v>181200</v>
+      </c>
+      <c r="G66" s="3">
+        <v>54000</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2308,9 +2465,12 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2412,9 +2579,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,23 +2612,26 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-134900</v>
+        <v>-171400</v>
       </c>
       <c r="E72" s="3">
-        <v>23100</v>
+        <v>-137800</v>
       </c>
       <c r="F72" s="3">
-        <v>66200</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
+        <v>23600</v>
+      </c>
+      <c r="G72" s="3">
+        <v>67600</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2472,9 +2645,12 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,23 +2744,26 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>105800</v>
+        <v>67500</v>
       </c>
       <c r="E76" s="3">
-        <v>36800</v>
+        <v>108100</v>
       </c>
       <c r="F76" s="3">
-        <v>131000</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
+        <v>37600</v>
+      </c>
+      <c r="G76" s="3">
+        <v>133700</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2592,9 +2777,12 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,29 +2810,32 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2657,23 +2848,26 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-158100</v>
+        <v>-33600</v>
       </c>
       <c r="E81" s="3">
-        <v>18700</v>
+        <v>-161400</v>
       </c>
       <c r="F81" s="3">
-        <v>57400</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
+        <v>19100</v>
+      </c>
+      <c r="G81" s="3">
+        <v>58600</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2687,9 +2881,12 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,23 +2899,24 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E83" s="3">
         <v>2100</v>
       </c>
-      <c r="E83" s="3">
-        <v>2000</v>
-      </c>
       <c r="F83" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G83" s="3">
         <v>1400</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2731,9 +2929,12 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,23 +3094,26 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-42800</v>
+        <v>6600</v>
       </c>
       <c r="E89" s="3">
-        <v>-1900</v>
+        <v>-43700</v>
       </c>
       <c r="F89" s="3">
-        <v>13900</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
+        <v>-2000</v>
+      </c>
+      <c r="G89" s="3">
+        <v>14200</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2911,9 +3127,12 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,22 +3145,23 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1300</v>
       </c>
-      <c r="E91" s="3">
-        <v>-3800</v>
-      </c>
       <c r="F91" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
+        <v>-3900</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-2000</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -2955,9 +3175,12 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,23 +3241,26 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2500</v>
       </c>
-      <c r="E94" s="3">
-        <v>12800</v>
-      </c>
       <c r="F94" s="3">
-        <v>-13300</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
+        <v>13100</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-13500</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3045,9 +3274,12 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,8 +3292,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3089,9 +3322,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,23 +3421,26 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>42500</v>
+        <v>-17500</v>
       </c>
       <c r="E100" s="3">
-        <v>45100</v>
+        <v>43400</v>
       </c>
       <c r="F100" s="3">
-        <v>22900</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
+        <v>46100</v>
+      </c>
+      <c r="G100" s="3">
+        <v>23400</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3209,24 +3454,27 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
-        <v>300</v>
-      </c>
       <c r="F101" s="3">
+        <v>400</v>
+      </c>
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3239,23 +3487,26 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-3100</v>
+        <v>-20100</v>
       </c>
       <c r="E102" s="3">
-        <v>56300</v>
+        <v>-3200</v>
       </c>
       <c r="F102" s="3">
-        <v>23400</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
+        <v>57500</v>
+      </c>
+      <c r="G102" s="3">
+        <v>23900</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
@@ -3269,7 +3520,10 @@
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CAN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CAN_YR_FIN.xlsx
@@ -718,16 +718,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>69800</v>
+        <v>68900</v>
       </c>
       <c r="E8" s="3">
-        <v>221900</v>
+        <v>219100</v>
       </c>
       <c r="F8" s="3">
-        <v>422100</v>
+        <v>416600</v>
       </c>
       <c r="G8" s="3">
-        <v>204100</v>
+        <v>201400</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -751,16 +751,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>64000</v>
+        <v>63100</v>
       </c>
       <c r="E9" s="3">
-        <v>302400</v>
+        <v>298500</v>
       </c>
       <c r="F9" s="3">
-        <v>342800</v>
+        <v>338300</v>
       </c>
       <c r="G9" s="3">
-        <v>109800</v>
+        <v>108400</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -784,16 +784,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="E10" s="3">
-        <v>-80500</v>
+        <v>-79500</v>
       </c>
       <c r="F10" s="3">
-        <v>79300</v>
+        <v>78200</v>
       </c>
       <c r="G10" s="3">
-        <v>94300</v>
+        <v>93100</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -832,16 +832,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>21200</v>
+        <v>21000</v>
       </c>
       <c r="E12" s="3">
-        <v>25800</v>
+        <v>25500</v>
       </c>
       <c r="F12" s="3">
-        <v>28800</v>
+        <v>28400</v>
       </c>
       <c r="G12" s="3">
-        <v>15000</v>
+        <v>14800</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -937,7 +937,7 @@
         <v>1800</v>
       </c>
       <c r="F15" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="G15" s="3">
         <v>1400</v>
@@ -976,16 +976,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>109500</v>
+        <v>108000</v>
       </c>
       <c r="E17" s="3">
-        <v>386500</v>
+        <v>381400</v>
       </c>
       <c r="F17" s="3">
-        <v>401300</v>
+        <v>396100</v>
       </c>
       <c r="G17" s="3">
-        <v>148200</v>
+        <v>146300</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -1009,16 +1009,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-39600</v>
+        <v>-39100</v>
       </c>
       <c r="E18" s="3">
-        <v>-164500</v>
+        <v>-162400</v>
       </c>
       <c r="F18" s="3">
-        <v>20800</v>
+        <v>20500</v>
       </c>
       <c r="G18" s="3">
-        <v>55900</v>
+        <v>55100</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1057,16 +1057,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F20" s="3">
+        <v>18500</v>
+      </c>
+      <c r="G20" s="3">
         <v>6600</v>
-      </c>
-      <c r="E20" s="3">
-        <v>6300</v>
-      </c>
-      <c r="F20" s="3">
-        <v>18800</v>
-      </c>
-      <c r="G20" s="3">
-        <v>6700</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1090,16 +1090,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-31200</v>
+        <v>-30700</v>
       </c>
       <c r="E21" s="3">
-        <v>-156100</v>
+        <v>-154100</v>
       </c>
       <c r="F21" s="3">
-        <v>41600</v>
+        <v>41000</v>
       </c>
       <c r="G21" s="3">
-        <v>64000</v>
+        <v>63100</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1129,7 +1129,7 @@
         <v>3100</v>
       </c>
       <c r="F22" s="3">
-        <v>8300</v>
+        <v>8200</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-33600</v>
+        <v>-33100</v>
       </c>
       <c r="E23" s="3">
-        <v>-161400</v>
+        <v>-159300</v>
       </c>
       <c r="F23" s="3">
-        <v>31200</v>
+        <v>30800</v>
       </c>
       <c r="G23" s="3">
-        <v>62600</v>
+        <v>61700</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>12100</v>
+        <v>12000</v>
       </c>
       <c r="G24" s="3">
         <v>3900</v>
@@ -1255,16 +1255,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-33600</v>
+        <v>-33100</v>
       </c>
       <c r="E26" s="3">
-        <v>-161400</v>
+        <v>-159300</v>
       </c>
       <c r="F26" s="3">
-        <v>19100</v>
+        <v>18900</v>
       </c>
       <c r="G26" s="3">
-        <v>58600</v>
+        <v>57900</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1288,16 +1288,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-33600</v>
+        <v>-33100</v>
       </c>
       <c r="E27" s="3">
-        <v>-161400</v>
+        <v>-159300</v>
       </c>
       <c r="F27" s="3">
-        <v>19100</v>
+        <v>18900</v>
       </c>
       <c r="G27" s="3">
-        <v>58600</v>
+        <v>57900</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1453,16 +1453,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="G32" s="3">
         <v>-6600</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-6300</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-18800</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-6700</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1486,16 +1486,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-33600</v>
+        <v>-33100</v>
       </c>
       <c r="E33" s="3">
-        <v>-161400</v>
+        <v>-159300</v>
       </c>
       <c r="F33" s="3">
-        <v>19100</v>
+        <v>18900</v>
       </c>
       <c r="G33" s="3">
-        <v>58600</v>
+        <v>57900</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1552,16 +1552,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-33600</v>
+        <v>-33100</v>
       </c>
       <c r="E35" s="3">
-        <v>-161400</v>
+        <v>-159300</v>
       </c>
       <c r="F35" s="3">
-        <v>19100</v>
+        <v>18900</v>
       </c>
       <c r="G35" s="3">
-        <v>58600</v>
+        <v>57900</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1653,16 +1653,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>61000</v>
+        <v>60300</v>
       </c>
       <c r="E41" s="3">
-        <v>81500</v>
+        <v>80400</v>
       </c>
       <c r="F41" s="3">
-        <v>40400</v>
+        <v>39900</v>
       </c>
       <c r="G41" s="3">
-        <v>27500</v>
+        <v>27200</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1686,7 +1686,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>9700</v>
+        <v>9600</v>
       </c>
       <c r="E42" s="3">
         <v>1700</v>
@@ -1695,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>14000</v>
+        <v>13900</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1719,16 +1719,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>18200</v>
+        <v>17900</v>
       </c>
       <c r="E43" s="3">
-        <v>25100</v>
+        <v>24800</v>
       </c>
       <c r="F43" s="3">
-        <v>24600</v>
+        <v>24300</v>
       </c>
       <c r="G43" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1752,16 +1752,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>35200</v>
+        <v>34700</v>
       </c>
       <c r="E44" s="3">
-        <v>30600</v>
+        <v>30200</v>
       </c>
       <c r="F44" s="3">
-        <v>91400</v>
+        <v>90200</v>
       </c>
       <c r="G44" s="3">
-        <v>40500</v>
+        <v>40000</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1785,16 +1785,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>33000</v>
+        <v>32600</v>
       </c>
       <c r="E45" s="3">
-        <v>7800</v>
+        <v>7700</v>
       </c>
       <c r="F45" s="3">
-        <v>57100</v>
+        <v>56300</v>
       </c>
       <c r="G45" s="3">
-        <v>96800</v>
+        <v>95600</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1818,16 +1818,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>157100</v>
+        <v>155100</v>
       </c>
       <c r="E46" s="3">
-        <v>146800</v>
+        <v>144900</v>
       </c>
       <c r="F46" s="3">
-        <v>213500</v>
+        <v>210700</v>
       </c>
       <c r="G46" s="3">
-        <v>184000</v>
+        <v>181600</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1884,16 +1884,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="E48" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="F48" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="G48" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -2082,16 +2082,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>161700</v>
+        <v>159600</v>
       </c>
       <c r="E54" s="3">
-        <v>154700</v>
+        <v>152700</v>
       </c>
       <c r="F54" s="3">
-        <v>218800</v>
+        <v>216000</v>
       </c>
       <c r="G54" s="3">
-        <v>187700</v>
+        <v>185300</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2148,13 +2148,13 @@
         <v>5800</v>
       </c>
       <c r="E57" s="3">
-        <v>15500</v>
+        <v>15300</v>
       </c>
       <c r="F57" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="G57" s="3">
-        <v>7900</v>
+        <v>7800</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2178,13 +2178,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="E58" s="3">
-        <v>19900</v>
+        <v>19600</v>
       </c>
       <c r="F58" s="3">
-        <v>163700</v>
+        <v>161500</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -2211,16 +2211,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>79000</v>
+        <v>78000</v>
       </c>
       <c r="E59" s="3">
-        <v>9200</v>
+        <v>9100</v>
       </c>
       <c r="F59" s="3">
-        <v>10200</v>
+        <v>10100</v>
       </c>
       <c r="G59" s="3">
-        <v>46100</v>
+        <v>45500</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2244,16 +2244,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>92400</v>
+        <v>91200</v>
       </c>
       <c r="E60" s="3">
-        <v>44500</v>
+        <v>43900</v>
       </c>
       <c r="F60" s="3">
-        <v>181200</v>
+        <v>178900</v>
       </c>
       <c r="G60" s="3">
-        <v>54000</v>
+        <v>53300</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2310,7 +2310,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="E62" s="3">
         <v>2100</v>
@@ -2442,16 +2442,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>94200</v>
+        <v>93000</v>
       </c>
       <c r="E66" s="3">
-        <v>46600</v>
+        <v>46000</v>
       </c>
       <c r="F66" s="3">
-        <v>181200</v>
+        <v>178900</v>
       </c>
       <c r="G66" s="3">
-        <v>54000</v>
+        <v>53300</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2622,16 +2622,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-171400</v>
+        <v>-169100</v>
       </c>
       <c r="E72" s="3">
-        <v>-137800</v>
+        <v>-136000</v>
       </c>
       <c r="F72" s="3">
-        <v>23600</v>
+        <v>23300</v>
       </c>
       <c r="G72" s="3">
-        <v>67600</v>
+        <v>66800</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2754,16 +2754,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>67500</v>
+        <v>66600</v>
       </c>
       <c r="E76" s="3">
-        <v>108100</v>
+        <v>106700</v>
       </c>
       <c r="F76" s="3">
-        <v>37600</v>
+        <v>37100</v>
       </c>
       <c r="G76" s="3">
-        <v>133700</v>
+        <v>132000</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2858,16 +2858,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-33600</v>
+        <v>-33100</v>
       </c>
       <c r="E81" s="3">
-        <v>-161400</v>
+        <v>-159300</v>
       </c>
       <c r="F81" s="3">
-        <v>19100</v>
+        <v>18900</v>
       </c>
       <c r="G81" s="3">
-        <v>58600</v>
+        <v>57900</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2912,7 +2912,7 @@
         <v>2100</v>
       </c>
       <c r="F83" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="G83" s="3">
         <v>1400</v>
@@ -3104,16 +3104,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>6600</v>
+        <v>6500</v>
       </c>
       <c r="E89" s="3">
-        <v>-43700</v>
+        <v>-43100</v>
       </c>
       <c r="F89" s="3">
         <v>-2000</v>
       </c>
       <c r="G89" s="3">
-        <v>14200</v>
+        <v>14000</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -3158,10 +3158,10 @@
         <v>-1300</v>
       </c>
       <c r="F91" s="3">
-        <v>-3900</v>
+        <v>-3800</v>
       </c>
       <c r="G91" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3251,16 +3251,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-7700</v>
+        <v>-7600</v>
       </c>
       <c r="E94" s="3">
         <v>-2500</v>
       </c>
       <c r="F94" s="3">
-        <v>13100</v>
+        <v>12900</v>
       </c>
       <c r="G94" s="3">
-        <v>-13500</v>
+        <v>-13400</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3431,16 +3431,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-17500</v>
+        <v>-17200</v>
       </c>
       <c r="E100" s="3">
-        <v>43400</v>
+        <v>42800</v>
       </c>
       <c r="F100" s="3">
-        <v>46100</v>
+        <v>45500</v>
       </c>
       <c r="G100" s="3">
-        <v>23400</v>
+        <v>23100</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3497,16 +3497,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-20100</v>
+        <v>-19900</v>
       </c>
       <c r="E102" s="3">
-        <v>-3200</v>
+        <v>-3100</v>
       </c>
       <c r="F102" s="3">
-        <v>57500</v>
+        <v>56800</v>
       </c>
       <c r="G102" s="3">
-        <v>23900</v>
+        <v>23600</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/CAN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CAN_YR_FIN.xlsx
@@ -718,16 +718,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>68900</v>
+        <v>70100</v>
       </c>
       <c r="E8" s="3">
-        <v>219100</v>
+        <v>222700</v>
       </c>
       <c r="F8" s="3">
-        <v>416600</v>
+        <v>423500</v>
       </c>
       <c r="G8" s="3">
-        <v>201400</v>
+        <v>204800</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -751,16 +751,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>63100</v>
+        <v>64200</v>
       </c>
       <c r="E9" s="3">
-        <v>298500</v>
+        <v>303500</v>
       </c>
       <c r="F9" s="3">
-        <v>338300</v>
+        <v>344000</v>
       </c>
       <c r="G9" s="3">
-        <v>108400</v>
+        <v>110200</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -784,16 +784,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="E10" s="3">
-        <v>-79500</v>
+        <v>-80800</v>
       </c>
       <c r="F10" s="3">
-        <v>78200</v>
+        <v>79600</v>
       </c>
       <c r="G10" s="3">
-        <v>93100</v>
+        <v>94600</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -832,16 +832,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>21000</v>
+        <v>21300</v>
       </c>
       <c r="E12" s="3">
-        <v>25500</v>
+        <v>25900</v>
       </c>
       <c r="F12" s="3">
-        <v>28400</v>
+        <v>28900</v>
       </c>
       <c r="G12" s="3">
-        <v>14800</v>
+        <v>15000</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -937,7 +937,7 @@
         <v>1800</v>
       </c>
       <c r="F15" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="G15" s="3">
         <v>1400</v>
@@ -976,16 +976,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>108000</v>
+        <v>109800</v>
       </c>
       <c r="E17" s="3">
-        <v>381400</v>
+        <v>387800</v>
       </c>
       <c r="F17" s="3">
-        <v>396100</v>
+        <v>402700</v>
       </c>
       <c r="G17" s="3">
-        <v>146300</v>
+        <v>148700</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -1009,16 +1009,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-39100</v>
+        <v>-39700</v>
       </c>
       <c r="E18" s="3">
-        <v>-162400</v>
+        <v>-165100</v>
       </c>
       <c r="F18" s="3">
-        <v>20500</v>
+        <v>20800</v>
       </c>
       <c r="G18" s="3">
-        <v>55100</v>
+        <v>56100</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1057,16 +1057,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>6500</v>
+        <v>6600</v>
       </c>
       <c r="E20" s="3">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="F20" s="3">
-        <v>18500</v>
+        <v>18800</v>
       </c>
       <c r="G20" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1090,16 +1090,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-30700</v>
+        <v>-31300</v>
       </c>
       <c r="E21" s="3">
-        <v>-154100</v>
+        <v>-156700</v>
       </c>
       <c r="F21" s="3">
-        <v>41000</v>
+        <v>41700</v>
       </c>
       <c r="G21" s="3">
-        <v>63100</v>
+        <v>64200</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1129,7 +1129,7 @@
         <v>3100</v>
       </c>
       <c r="F22" s="3">
-        <v>8200</v>
+        <v>8300</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-33100</v>
+        <v>-33700</v>
       </c>
       <c r="E23" s="3">
-        <v>-159300</v>
+        <v>-162000</v>
       </c>
       <c r="F23" s="3">
-        <v>30800</v>
+        <v>31300</v>
       </c>
       <c r="G23" s="3">
-        <v>61700</v>
+        <v>62800</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>12000</v>
+        <v>12200</v>
       </c>
       <c r="G24" s="3">
         <v>3900</v>
@@ -1255,16 +1255,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-33100</v>
+        <v>-33700</v>
       </c>
       <c r="E26" s="3">
-        <v>-159300</v>
+        <v>-162000</v>
       </c>
       <c r="F26" s="3">
-        <v>18900</v>
+        <v>19200</v>
       </c>
       <c r="G26" s="3">
-        <v>57900</v>
+        <v>58800</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1288,16 +1288,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-33100</v>
+        <v>-33700</v>
       </c>
       <c r="E27" s="3">
-        <v>-159300</v>
+        <v>-162000</v>
       </c>
       <c r="F27" s="3">
-        <v>18900</v>
+        <v>19200</v>
       </c>
       <c r="G27" s="3">
-        <v>57900</v>
+        <v>58800</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1453,16 +1453,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-6500</v>
+        <v>-6600</v>
       </c>
       <c r="E32" s="3">
-        <v>-6200</v>
+        <v>-6300</v>
       </c>
       <c r="F32" s="3">
-        <v>-18500</v>
+        <v>-18800</v>
       </c>
       <c r="G32" s="3">
-        <v>-6600</v>
+        <v>-6700</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1486,16 +1486,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-33100</v>
+        <v>-33700</v>
       </c>
       <c r="E33" s="3">
-        <v>-159300</v>
+        <v>-162000</v>
       </c>
       <c r="F33" s="3">
-        <v>18900</v>
+        <v>19200</v>
       </c>
       <c r="G33" s="3">
-        <v>57900</v>
+        <v>58800</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1552,16 +1552,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-33100</v>
+        <v>-33700</v>
       </c>
       <c r="E35" s="3">
-        <v>-159300</v>
+        <v>-162000</v>
       </c>
       <c r="F35" s="3">
-        <v>18900</v>
+        <v>19200</v>
       </c>
       <c r="G35" s="3">
-        <v>57900</v>
+        <v>58800</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1653,16 +1653,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>60300</v>
+        <v>61300</v>
       </c>
       <c r="E41" s="3">
-        <v>80400</v>
+        <v>81800</v>
       </c>
       <c r="F41" s="3">
-        <v>39900</v>
+        <v>40500</v>
       </c>
       <c r="G41" s="3">
-        <v>27200</v>
+        <v>27600</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1686,7 +1686,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>9600</v>
+        <v>9800</v>
       </c>
       <c r="E42" s="3">
         <v>1700</v>
@@ -1695,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>13900</v>
+        <v>14100</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1719,16 +1719,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>17900</v>
+        <v>18200</v>
       </c>
       <c r="E43" s="3">
-        <v>24800</v>
+        <v>25200</v>
       </c>
       <c r="F43" s="3">
-        <v>24300</v>
+        <v>24700</v>
       </c>
       <c r="G43" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1752,16 +1752,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>34700</v>
+        <v>35300</v>
       </c>
       <c r="E44" s="3">
-        <v>30200</v>
+        <v>30700</v>
       </c>
       <c r="F44" s="3">
-        <v>90200</v>
+        <v>91700</v>
       </c>
       <c r="G44" s="3">
-        <v>40000</v>
+        <v>40700</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1785,16 +1785,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>32600</v>
+        <v>33100</v>
       </c>
       <c r="E45" s="3">
-        <v>7700</v>
+        <v>7900</v>
       </c>
       <c r="F45" s="3">
-        <v>56300</v>
+        <v>57300</v>
       </c>
       <c r="G45" s="3">
-        <v>95600</v>
+        <v>97200</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1818,16 +1818,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>155100</v>
+        <v>157700</v>
       </c>
       <c r="E46" s="3">
-        <v>144900</v>
+        <v>147300</v>
       </c>
       <c r="F46" s="3">
-        <v>210700</v>
+        <v>214200</v>
       </c>
       <c r="G46" s="3">
-        <v>181600</v>
+        <v>184700</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1884,16 +1884,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="E48" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="F48" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="G48" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -2082,16 +2082,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>159600</v>
+        <v>162300</v>
       </c>
       <c r="E54" s="3">
-        <v>152700</v>
+        <v>155200</v>
       </c>
       <c r="F54" s="3">
-        <v>216000</v>
+        <v>219600</v>
       </c>
       <c r="G54" s="3">
-        <v>185300</v>
+        <v>188400</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2145,16 +2145,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="E57" s="3">
-        <v>15300</v>
+        <v>15500</v>
       </c>
       <c r="F57" s="3">
-        <v>7300</v>
+        <v>7400</v>
       </c>
       <c r="G57" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2178,13 +2178,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="E58" s="3">
-        <v>19600</v>
+        <v>19900</v>
       </c>
       <c r="F58" s="3">
-        <v>161500</v>
+        <v>164200</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -2211,16 +2211,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>78000</v>
+        <v>79300</v>
       </c>
       <c r="E59" s="3">
-        <v>9100</v>
+        <v>9200</v>
       </c>
       <c r="F59" s="3">
-        <v>10100</v>
+        <v>10200</v>
       </c>
       <c r="G59" s="3">
-        <v>45500</v>
+        <v>46300</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2244,16 +2244,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>91200</v>
+        <v>92800</v>
       </c>
       <c r="E60" s="3">
-        <v>43900</v>
+        <v>44700</v>
       </c>
       <c r="F60" s="3">
-        <v>178900</v>
+        <v>181900</v>
       </c>
       <c r="G60" s="3">
-        <v>53300</v>
+        <v>54200</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2310,7 +2310,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="E62" s="3">
         <v>2100</v>
@@ -2442,16 +2442,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>93000</v>
+        <v>94500</v>
       </c>
       <c r="E66" s="3">
-        <v>46000</v>
+        <v>46800</v>
       </c>
       <c r="F66" s="3">
-        <v>178900</v>
+        <v>181900</v>
       </c>
       <c r="G66" s="3">
-        <v>53300</v>
+        <v>54200</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2622,16 +2622,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-169100</v>
+        <v>-172000</v>
       </c>
       <c r="E72" s="3">
-        <v>-136000</v>
+        <v>-138300</v>
       </c>
       <c r="F72" s="3">
-        <v>23300</v>
+        <v>23700</v>
       </c>
       <c r="G72" s="3">
-        <v>66800</v>
+        <v>67900</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2754,16 +2754,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>66600</v>
+        <v>67700</v>
       </c>
       <c r="E76" s="3">
-        <v>106700</v>
+        <v>108500</v>
       </c>
       <c r="F76" s="3">
-        <v>37100</v>
+        <v>37700</v>
       </c>
       <c r="G76" s="3">
-        <v>132000</v>
+        <v>134200</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2858,16 +2858,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-33100</v>
+        <v>-33700</v>
       </c>
       <c r="E81" s="3">
-        <v>-159300</v>
+        <v>-162000</v>
       </c>
       <c r="F81" s="3">
-        <v>18900</v>
+        <v>19200</v>
       </c>
       <c r="G81" s="3">
-        <v>57900</v>
+        <v>58800</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2906,13 +2906,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="E83" s="3">
         <v>2100</v>
       </c>
       <c r="F83" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="G83" s="3">
         <v>1400</v>
@@ -3104,16 +3104,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>6500</v>
+        <v>6600</v>
       </c>
       <c r="E89" s="3">
-        <v>-43100</v>
+        <v>-43800</v>
       </c>
       <c r="F89" s="3">
         <v>-2000</v>
       </c>
       <c r="G89" s="3">
-        <v>14000</v>
+        <v>14300</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -3158,10 +3158,10 @@
         <v>-1300</v>
       </c>
       <c r="F91" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="G91" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3251,16 +3251,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-7600</v>
+        <v>-7800</v>
       </c>
       <c r="E94" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="F94" s="3">
-        <v>12900</v>
+        <v>13100</v>
       </c>
       <c r="G94" s="3">
-        <v>-13400</v>
+        <v>-13600</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3431,16 +3431,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-17200</v>
+        <v>-17500</v>
       </c>
       <c r="E100" s="3">
-        <v>42800</v>
+        <v>43500</v>
       </c>
       <c r="F100" s="3">
-        <v>45500</v>
+        <v>46200</v>
       </c>
       <c r="G100" s="3">
-        <v>23100</v>
+        <v>23500</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3497,16 +3497,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-19900</v>
+        <v>-20200</v>
       </c>
       <c r="E102" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="F102" s="3">
-        <v>56800</v>
+        <v>57700</v>
       </c>
       <c r="G102" s="3">
-        <v>23600</v>
+        <v>24000</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/CAN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CAN_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="92">
   <si>
     <t>CAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,40 +665,40 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -711,26 +711,29 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>70100</v>
+        <v>786700</v>
       </c>
       <c r="E8" s="3">
-        <v>222700</v>
+        <v>70600</v>
       </c>
       <c r="F8" s="3">
-        <v>423500</v>
+        <v>224400</v>
       </c>
       <c r="G8" s="3">
-        <v>204800</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
+        <v>426800</v>
+      </c>
+      <c r="H8" s="3">
+        <v>206400</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -744,26 +747,29 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>64200</v>
+        <v>337000</v>
       </c>
       <c r="E9" s="3">
-        <v>303500</v>
+        <v>64700</v>
       </c>
       <c r="F9" s="3">
-        <v>344000</v>
+        <v>305800</v>
       </c>
       <c r="G9" s="3">
-        <v>110200</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
+        <v>346600</v>
+      </c>
+      <c r="H9" s="3">
+        <v>111000</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -777,26 +783,29 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>5900</v>
+        <v>449700</v>
       </c>
       <c r="E10" s="3">
-        <v>-80800</v>
+        <v>6000</v>
       </c>
       <c r="F10" s="3">
-        <v>79600</v>
+        <v>-81400</v>
       </c>
       <c r="G10" s="3">
-        <v>94600</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
+        <v>80200</v>
+      </c>
+      <c r="H10" s="3">
+        <v>95300</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -810,9 +819,12 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,25 +838,26 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>21300</v>
+        <v>52500</v>
       </c>
       <c r="E12" s="3">
-        <v>25900</v>
+        <v>21500</v>
       </c>
       <c r="F12" s="3">
-        <v>28900</v>
+        <v>26100</v>
       </c>
       <c r="G12" s="3">
-        <v>15000</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
+        <v>29100</v>
+      </c>
+      <c r="H12" s="3">
+        <v>15100</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -858,9 +871,12 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,9 +907,12 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -903,15 +922,15 @@
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>100</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
@@ -924,14 +943,17 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>1800</v>
+      <c r="D15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E15" s="3">
         <v>1800</v>
@@ -940,11 +962,11 @@
         <v>1900</v>
       </c>
       <c r="G15" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H15" s="3">
         <v>1400</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
       </c>
@@ -957,9 +979,12 @@
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -970,25 +995,26 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>109800</v>
+        <v>498300</v>
       </c>
       <c r="E17" s="3">
-        <v>387800</v>
+        <v>110700</v>
       </c>
       <c r="F17" s="3">
-        <v>402700</v>
+        <v>390800</v>
       </c>
       <c r="G17" s="3">
-        <v>148700</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
+        <v>405800</v>
+      </c>
+      <c r="H17" s="3">
+        <v>149900</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1002,26 +1028,29 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-39700</v>
+        <v>288400</v>
       </c>
       <c r="E18" s="3">
-        <v>-165100</v>
+        <v>-40100</v>
       </c>
       <c r="F18" s="3">
-        <v>20800</v>
+        <v>-166400</v>
       </c>
       <c r="G18" s="3">
-        <v>56100</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
+        <v>21000</v>
+      </c>
+      <c r="H18" s="3">
+        <v>56500</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1035,9 +1064,12 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1051,25 +1083,26 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>6600</v>
+        <v>35000</v>
       </c>
       <c r="E20" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F20" s="3">
         <v>6300</v>
       </c>
-      <c r="F20" s="3">
-        <v>18800</v>
-      </c>
       <c r="G20" s="3">
-        <v>6700</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
+        <v>19000</v>
+      </c>
+      <c r="H20" s="3">
+        <v>6800</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1083,26 +1116,29 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>-31300</v>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>-156700</v>
+        <v>-31500</v>
       </c>
       <c r="F21" s="3">
-        <v>41700</v>
+        <v>-157900</v>
       </c>
       <c r="G21" s="3">
-        <v>64200</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
+        <v>42000</v>
+      </c>
+      <c r="H21" s="3">
+        <v>64700</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1116,26 +1152,29 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
         <v>600</v>
       </c>
-      <c r="E22" s="3">
-        <v>3100</v>
-      </c>
       <c r="F22" s="3">
-        <v>8300</v>
+        <v>3200</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
+        <v>8400</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
@@ -1149,26 +1188,29 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-33700</v>
+        <v>323500</v>
       </c>
       <c r="E23" s="3">
-        <v>-162000</v>
+        <v>-33900</v>
       </c>
       <c r="F23" s="3">
-        <v>31300</v>
+        <v>-163200</v>
       </c>
       <c r="G23" s="3">
-        <v>62800</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
+        <v>31600</v>
+      </c>
+      <c r="H23" s="3">
+        <v>63300</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1182,26 +1224,29 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>7900</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>12200</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>3900</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
+        <v>12300</v>
+      </c>
+      <c r="H24" s="3">
+        <v>4000</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1215,9 +1260,12 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1248,26 +1296,29 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-33700</v>
+        <v>315600</v>
       </c>
       <c r="E26" s="3">
-        <v>-162000</v>
+        <v>-33900</v>
       </c>
       <c r="F26" s="3">
-        <v>19200</v>
+        <v>-163200</v>
       </c>
       <c r="G26" s="3">
-        <v>58800</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
+        <v>19300</v>
+      </c>
+      <c r="H26" s="3">
+        <v>59300</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1281,26 +1332,29 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-33700</v>
+        <v>315600</v>
       </c>
       <c r="E27" s="3">
-        <v>-162000</v>
+        <v>-33900</v>
       </c>
       <c r="F27" s="3">
-        <v>19200</v>
+        <v>-163200</v>
       </c>
       <c r="G27" s="3">
-        <v>58800</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
+        <v>19300</v>
+      </c>
+      <c r="H27" s="3">
+        <v>59300</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1314,9 +1368,12 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1347,9 +1404,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1380,9 +1440,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1446,26 +1512,29 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-6600</v>
+        <v>-35000</v>
       </c>
       <c r="E32" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="F32" s="3">
         <v>-6300</v>
       </c>
-      <c r="F32" s="3">
-        <v>-18800</v>
-      </c>
       <c r="G32" s="3">
-        <v>-6700</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
+        <v>-19000</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-6800</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1479,26 +1548,29 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-33700</v>
+        <v>315600</v>
       </c>
       <c r="E33" s="3">
-        <v>-162000</v>
+        <v>-33900</v>
       </c>
       <c r="F33" s="3">
-        <v>19200</v>
+        <v>-163200</v>
       </c>
       <c r="G33" s="3">
-        <v>58800</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
+        <v>19300</v>
+      </c>
+      <c r="H33" s="3">
+        <v>59300</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1512,9 +1584,12 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1545,26 +1620,29 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-33700</v>
+        <v>315600</v>
       </c>
       <c r="E35" s="3">
-        <v>-162000</v>
+        <v>-33900</v>
       </c>
       <c r="F35" s="3">
-        <v>19200</v>
+        <v>-163200</v>
       </c>
       <c r="G35" s="3">
-        <v>58800</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
+        <v>19300</v>
+      </c>
+      <c r="H35" s="3">
+        <v>59300</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1578,32 +1656,35 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1616,9 +1697,12 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1632,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1647,25 +1732,26 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>61300</v>
+        <v>423500</v>
       </c>
       <c r="E41" s="3">
-        <v>81800</v>
+        <v>61700</v>
       </c>
       <c r="F41" s="3">
-        <v>40500</v>
+        <v>82400</v>
       </c>
       <c r="G41" s="3">
-        <v>27600</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+        <v>40900</v>
+      </c>
+      <c r="H41" s="3">
+        <v>27800</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1679,26 +1765,29 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="3">
         <v>9800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1700</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
       <c r="G42" s="3">
-        <v>14100</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>14200</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1712,27 +1801,30 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>18200</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>25200</v>
+        <v>18400</v>
       </c>
       <c r="F43" s="3">
-        <v>24700</v>
+        <v>25400</v>
       </c>
       <c r="G43" s="3">
+        <v>24900</v>
+      </c>
+      <c r="H43" s="3">
         <v>5100</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1745,26 +1837,29 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>35300</v>
+        <v>128200</v>
       </c>
       <c r="E44" s="3">
-        <v>30700</v>
+        <v>35600</v>
       </c>
       <c r="F44" s="3">
-        <v>91700</v>
+        <v>30900</v>
       </c>
       <c r="G44" s="3">
-        <v>40700</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
+        <v>92400</v>
+      </c>
+      <c r="H44" s="3">
+        <v>41000</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -1778,26 +1873,29 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>33100</v>
+        <v>280200</v>
       </c>
       <c r="E45" s="3">
+        <v>33400</v>
+      </c>
+      <c r="F45" s="3">
         <v>7900</v>
       </c>
-      <c r="F45" s="3">
-        <v>57300</v>
-      </c>
       <c r="G45" s="3">
-        <v>97200</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+        <v>57700</v>
+      </c>
+      <c r="H45" s="3">
+        <v>97900</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1811,26 +1909,29 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>157700</v>
+        <v>831900</v>
       </c>
       <c r="E46" s="3">
-        <v>147300</v>
+        <v>158900</v>
       </c>
       <c r="F46" s="3">
-        <v>214200</v>
+        <v>148400</v>
       </c>
       <c r="G46" s="3">
-        <v>184700</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+        <v>215900</v>
+      </c>
+      <c r="H46" s="3">
+        <v>186100</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1844,17 +1945,20 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
+        <v>3200</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
@@ -1871,33 +1975,36 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>34200</v>
+      </c>
+      <c r="E48" s="3">
         <v>4200</v>
       </c>
-      <c r="E48" s="3">
-        <v>7100</v>
-      </c>
       <c r="F48" s="3">
+        <v>7200</v>
+      </c>
+      <c r="G48" s="3">
         <v>4400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2900</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1910,9 +2017,12 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1943,9 +2053,12 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1976,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,27 +2125,30 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E52" s="3">
         <v>400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>800</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2042,9 +2161,12 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2075,26 +2197,29 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>162300</v>
+        <v>888500</v>
       </c>
       <c r="E54" s="3">
-        <v>155200</v>
+        <v>163500</v>
       </c>
       <c r="F54" s="3">
-        <v>219600</v>
+        <v>156400</v>
       </c>
       <c r="G54" s="3">
-        <v>188400</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
+        <v>221300</v>
+      </c>
+      <c r="H54" s="3">
+        <v>189800</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2108,9 +2233,12 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2124,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2139,25 +2268,26 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E57" s="3">
         <v>5900</v>
       </c>
-      <c r="E57" s="3">
-        <v>15500</v>
-      </c>
       <c r="F57" s="3">
-        <v>7400</v>
+        <v>15600</v>
       </c>
       <c r="G57" s="3">
-        <v>7900</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+        <v>7500</v>
+      </c>
+      <c r="H57" s="3">
+        <v>8000</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2171,26 +2301,29 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>7600</v>
+      <c r="D58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E58" s="3">
-        <v>19900</v>
+        <v>7700</v>
       </c>
       <c r="F58" s="3">
-        <v>164200</v>
+        <v>20100</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+        <v>165500</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2204,26 +2337,29 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>79300</v>
+        <v>306300</v>
       </c>
       <c r="E59" s="3">
-        <v>9200</v>
+        <v>79900</v>
       </c>
       <c r="F59" s="3">
-        <v>10200</v>
+        <v>9300</v>
       </c>
       <c r="G59" s="3">
-        <v>46300</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+        <v>10300</v>
+      </c>
+      <c r="H59" s="3">
+        <v>46600</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2237,26 +2373,29 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>92800</v>
+        <v>328900</v>
       </c>
       <c r="E60" s="3">
-        <v>44700</v>
+        <v>93500</v>
       </c>
       <c r="F60" s="3">
-        <v>181900</v>
+        <v>45000</v>
       </c>
       <c r="G60" s="3">
-        <v>54200</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
+        <v>183300</v>
+      </c>
+      <c r="H60" s="3">
+        <v>54600</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2270,9 +2409,12 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2303,21 +2445,24 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2100</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2333,12 +2478,15 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2369,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2402,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2435,26 +2589,29 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>94500</v>
+        <v>342900</v>
       </c>
       <c r="E66" s="3">
-        <v>46800</v>
+        <v>95300</v>
       </c>
       <c r="F66" s="3">
-        <v>181900</v>
+        <v>47100</v>
       </c>
       <c r="G66" s="3">
-        <v>54200</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
+        <v>183300</v>
+      </c>
+      <c r="H66" s="3">
+        <v>54600</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2468,9 +2625,12 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2484,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2516,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2549,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2582,9 +2749,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2615,26 +2785,29 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-172000</v>
+        <v>142300</v>
       </c>
       <c r="E72" s="3">
-        <v>-138300</v>
+        <v>-173300</v>
       </c>
       <c r="F72" s="3">
-        <v>23700</v>
+        <v>-139300</v>
       </c>
       <c r="G72" s="3">
-        <v>67900</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+        <v>23900</v>
+      </c>
+      <c r="H72" s="3">
+        <v>68400</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2648,9 +2821,12 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2681,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2714,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2747,26 +2929,29 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>67700</v>
+        <v>545600</v>
       </c>
       <c r="E76" s="3">
-        <v>108500</v>
+        <v>68200</v>
       </c>
       <c r="F76" s="3">
-        <v>37700</v>
+        <v>109300</v>
       </c>
       <c r="G76" s="3">
-        <v>134200</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+        <v>38000</v>
+      </c>
+      <c r="H76" s="3">
+        <v>135200</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2780,9 +2965,12 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2813,32 +3001,35 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2851,26 +3042,29 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-33700</v>
+        <v>315600</v>
       </c>
       <c r="E81" s="3">
-        <v>-162000</v>
+        <v>-33900</v>
       </c>
       <c r="F81" s="3">
-        <v>19200</v>
+        <v>-163200</v>
       </c>
       <c r="G81" s="3">
-        <v>58800</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
+        <v>19300</v>
+      </c>
+      <c r="H81" s="3">
+        <v>59300</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2884,9 +3078,12 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2900,26 +3097,27 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="3">
         <v>1900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G83" s="3">
         <v>2100</v>
       </c>
-      <c r="F83" s="3">
-        <v>2100</v>
-      </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1400</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2932,9 +3130,12 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2965,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2998,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3031,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3064,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3097,26 +3310,29 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>6600</v>
+      <c r="D89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E89" s="3">
-        <v>-43800</v>
+        <v>6700</v>
       </c>
       <c r="F89" s="3">
+        <v>-44200</v>
+      </c>
+      <c r="G89" s="3">
         <v>-2000</v>
       </c>
-      <c r="G89" s="3">
-        <v>14300</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+      <c r="H89" s="3">
+        <v>14400</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3130,9 +3346,12 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3146,26 +3365,27 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2000</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3178,9 +3398,12 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3211,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3244,26 +3470,29 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="3">
         <v>-7800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2600</v>
       </c>
-      <c r="F94" s="3">
-        <v>13100</v>
-      </c>
       <c r="G94" s="3">
-        <v>-13600</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+        <v>13200</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-13700</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3277,9 +3506,12 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3293,8 +3525,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3325,9 +3558,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3358,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3391,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3424,26 +3666,29 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>-17500</v>
+      <c r="D100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E100" s="3">
-        <v>43500</v>
+        <v>-17700</v>
       </c>
       <c r="F100" s="3">
-        <v>46200</v>
+        <v>43800</v>
       </c>
       <c r="G100" s="3">
-        <v>23500</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+        <v>46600</v>
+      </c>
+      <c r="H100" s="3">
+        <v>23700</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3457,27 +3702,30 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3490,26 +3738,29 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-20200</v>
+      <c r="D102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E102" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-3200</v>
       </c>
-      <c r="F102" s="3">
-        <v>57700</v>
-      </c>
       <c r="G102" s="3">
-        <v>24000</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+        <v>58200</v>
+      </c>
+      <c r="H102" s="3">
+        <v>24200</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3523,7 +3774,10 @@
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CAN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CAN_YR_FIN.xlsx
@@ -721,19 +721,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>786700</v>
+        <v>734800</v>
       </c>
       <c r="E8" s="3">
-        <v>70600</v>
+        <v>66000</v>
       </c>
       <c r="F8" s="3">
-        <v>224400</v>
+        <v>209600</v>
       </c>
       <c r="G8" s="3">
-        <v>426800</v>
+        <v>398700</v>
       </c>
       <c r="H8" s="3">
-        <v>206400</v>
+        <v>192800</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -757,19 +757,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>337000</v>
+        <v>314800</v>
       </c>
       <c r="E9" s="3">
-        <v>64700</v>
+        <v>60400</v>
       </c>
       <c r="F9" s="3">
-        <v>305800</v>
+        <v>285700</v>
       </c>
       <c r="G9" s="3">
-        <v>346600</v>
+        <v>323800</v>
       </c>
       <c r="H9" s="3">
-        <v>111000</v>
+        <v>103700</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -793,19 +793,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>449700</v>
+        <v>420100</v>
       </c>
       <c r="E10" s="3">
-        <v>6000</v>
+        <v>5600</v>
       </c>
       <c r="F10" s="3">
-        <v>-81400</v>
+        <v>-76000</v>
       </c>
       <c r="G10" s="3">
-        <v>80200</v>
+        <v>74900</v>
       </c>
       <c r="H10" s="3">
-        <v>95300</v>
+        <v>89100</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -845,19 +845,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>52500</v>
+        <v>49000</v>
       </c>
       <c r="E12" s="3">
-        <v>21500</v>
+        <v>20100</v>
       </c>
       <c r="F12" s="3">
-        <v>26100</v>
+        <v>24400</v>
       </c>
       <c r="G12" s="3">
-        <v>29100</v>
+        <v>27200</v>
       </c>
       <c r="H12" s="3">
-        <v>15100</v>
+        <v>14100</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -956,16 +956,16 @@
         <v>3</v>
       </c>
       <c r="E15" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G15" s="3">
         <v>1800</v>
       </c>
-      <c r="F15" s="3">
-        <v>1900</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1900</v>
-      </c>
       <c r="H15" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
@@ -1002,19 +1002,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>498300</v>
+        <v>465400</v>
       </c>
       <c r="E17" s="3">
-        <v>110700</v>
+        <v>103400</v>
       </c>
       <c r="F17" s="3">
-        <v>390800</v>
+        <v>365000</v>
       </c>
       <c r="G17" s="3">
-        <v>405800</v>
+        <v>379000</v>
       </c>
       <c r="H17" s="3">
-        <v>149900</v>
+        <v>140000</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1038,19 +1038,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>288400</v>
+        <v>269400</v>
       </c>
       <c r="E18" s="3">
-        <v>-40100</v>
+        <v>-37400</v>
       </c>
       <c r="F18" s="3">
-        <v>-166400</v>
+        <v>-155400</v>
       </c>
       <c r="G18" s="3">
-        <v>21000</v>
+        <v>19600</v>
       </c>
       <c r="H18" s="3">
-        <v>56500</v>
+        <v>52800</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1090,19 +1090,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>35000</v>
+        <v>32700</v>
       </c>
       <c r="E20" s="3">
-        <v>6700</v>
+        <v>6200</v>
       </c>
       <c r="F20" s="3">
+        <v>5900</v>
+      </c>
+      <c r="G20" s="3">
+        <v>17700</v>
+      </c>
+      <c r="H20" s="3">
         <v>6300</v>
-      </c>
-      <c r="G20" s="3">
-        <v>19000</v>
-      </c>
-      <c r="H20" s="3">
-        <v>6800</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1129,16 +1129,16 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>-31500</v>
+        <v>-29400</v>
       </c>
       <c r="F21" s="3">
-        <v>-157900</v>
+        <v>-147500</v>
       </c>
       <c r="G21" s="3">
-        <v>42000</v>
+        <v>39300</v>
       </c>
       <c r="H21" s="3">
-        <v>64700</v>
+        <v>60400</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1165,13 +1165,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F22" s="3">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="G22" s="3">
-        <v>8400</v>
+        <v>7800</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1198,19 +1198,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>323500</v>
+        <v>302100</v>
       </c>
       <c r="E23" s="3">
-        <v>-33900</v>
+        <v>-31700</v>
       </c>
       <c r="F23" s="3">
-        <v>-163200</v>
+        <v>-152400</v>
       </c>
       <c r="G23" s="3">
-        <v>31600</v>
+        <v>29500</v>
       </c>
       <c r="H23" s="3">
-        <v>63300</v>
+        <v>59100</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1234,7 +1234,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>7900</v>
+        <v>7400</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1243,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>12300</v>
+        <v>11500</v>
       </c>
       <c r="H24" s="3">
-        <v>4000</v>
+        <v>3700</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1306,19 +1306,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>315600</v>
+        <v>294800</v>
       </c>
       <c r="E26" s="3">
-        <v>-33900</v>
+        <v>-31700</v>
       </c>
       <c r="F26" s="3">
-        <v>-163200</v>
+        <v>-152400</v>
       </c>
       <c r="G26" s="3">
-        <v>19300</v>
+        <v>18000</v>
       </c>
       <c r="H26" s="3">
-        <v>59300</v>
+        <v>55400</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1342,19 +1342,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>315600</v>
+        <v>294800</v>
       </c>
       <c r="E27" s="3">
-        <v>-33900</v>
+        <v>-31700</v>
       </c>
       <c r="F27" s="3">
-        <v>-163200</v>
+        <v>-152400</v>
       </c>
       <c r="G27" s="3">
-        <v>19300</v>
+        <v>18000</v>
       </c>
       <c r="H27" s="3">
-        <v>59300</v>
+        <v>55400</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1522,19 +1522,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-35000</v>
+        <v>-32700</v>
       </c>
       <c r="E32" s="3">
-        <v>-6700</v>
+        <v>-6200</v>
       </c>
       <c r="F32" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="H32" s="3">
         <v>-6300</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-19000</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-6800</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1558,19 +1558,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>315600</v>
+        <v>294800</v>
       </c>
       <c r="E33" s="3">
-        <v>-33900</v>
+        <v>-31700</v>
       </c>
       <c r="F33" s="3">
-        <v>-163200</v>
+        <v>-152400</v>
       </c>
       <c r="G33" s="3">
-        <v>19300</v>
+        <v>18000</v>
       </c>
       <c r="H33" s="3">
-        <v>59300</v>
+        <v>55400</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1630,19 +1630,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>315600</v>
+        <v>294800</v>
       </c>
       <c r="E35" s="3">
-        <v>-33900</v>
+        <v>-31700</v>
       </c>
       <c r="F35" s="3">
-        <v>-163200</v>
+        <v>-152400</v>
       </c>
       <c r="G35" s="3">
-        <v>19300</v>
+        <v>18000</v>
       </c>
       <c r="H35" s="3">
-        <v>59300</v>
+        <v>55400</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1739,19 +1739,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>423500</v>
+        <v>395600</v>
       </c>
       <c r="E41" s="3">
-        <v>61700</v>
+        <v>57700</v>
       </c>
       <c r="F41" s="3">
-        <v>82400</v>
+        <v>77000</v>
       </c>
       <c r="G41" s="3">
-        <v>40900</v>
+        <v>38200</v>
       </c>
       <c r="H41" s="3">
-        <v>27800</v>
+        <v>26000</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1778,16 +1778,16 @@
         <v>3</v>
       </c>
       <c r="E42" s="3">
-        <v>9800</v>
+        <v>9200</v>
       </c>
       <c r="F42" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
       </c>
       <c r="H42" s="3">
-        <v>14200</v>
+        <v>13300</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1814,16 +1814,16 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>18400</v>
+        <v>17100</v>
       </c>
       <c r="F43" s="3">
-        <v>25400</v>
+        <v>23700</v>
       </c>
       <c r="G43" s="3">
-        <v>24900</v>
+        <v>23300</v>
       </c>
       <c r="H43" s="3">
-        <v>5100</v>
+        <v>4800</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1847,19 +1847,19 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>128200</v>
+        <v>119700</v>
       </c>
       <c r="E44" s="3">
-        <v>35600</v>
+        <v>33200</v>
       </c>
       <c r="F44" s="3">
-        <v>30900</v>
+        <v>28900</v>
       </c>
       <c r="G44" s="3">
-        <v>92400</v>
+        <v>86300</v>
       </c>
       <c r="H44" s="3">
-        <v>41000</v>
+        <v>38300</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -1883,19 +1883,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>280200</v>
+        <v>261800</v>
       </c>
       <c r="E45" s="3">
-        <v>33400</v>
+        <v>31200</v>
       </c>
       <c r="F45" s="3">
-        <v>7900</v>
+        <v>7400</v>
       </c>
       <c r="G45" s="3">
-        <v>57700</v>
+        <v>53900</v>
       </c>
       <c r="H45" s="3">
-        <v>97900</v>
+        <v>91500</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1919,19 +1919,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>831900</v>
+        <v>777100</v>
       </c>
       <c r="E46" s="3">
-        <v>158900</v>
+        <v>148400</v>
       </c>
       <c r="F46" s="3">
-        <v>148400</v>
+        <v>138600</v>
       </c>
       <c r="G46" s="3">
-        <v>215900</v>
+        <v>201700</v>
       </c>
       <c r="H46" s="3">
-        <v>186100</v>
+        <v>173800</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1955,7 +1955,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3200</v>
+        <v>2900</v>
       </c>
       <c r="E47" s="3">
         <v>0</v>
@@ -1991,19 +1991,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>34200</v>
+        <v>31900</v>
       </c>
       <c r="E48" s="3">
-        <v>4200</v>
+        <v>3900</v>
       </c>
       <c r="F48" s="3">
-        <v>7200</v>
+        <v>6700</v>
       </c>
       <c r="G48" s="3">
-        <v>4400</v>
+        <v>4100</v>
       </c>
       <c r="H48" s="3">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -2135,7 +2135,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>19300</v>
+        <v>18000</v>
       </c>
       <c r="E52" s="3">
         <v>400</v>
@@ -2144,7 +2144,7 @@
         <v>800</v>
       </c>
       <c r="G52" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="H52" s="3">
         <v>800</v>
@@ -2207,19 +2207,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>888500</v>
+        <v>830000</v>
       </c>
       <c r="E54" s="3">
-        <v>163500</v>
+        <v>152700</v>
       </c>
       <c r="F54" s="3">
-        <v>156400</v>
+        <v>146100</v>
       </c>
       <c r="G54" s="3">
-        <v>221300</v>
+        <v>206700</v>
       </c>
       <c r="H54" s="3">
-        <v>189800</v>
+        <v>177300</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2275,19 +2275,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>22600</v>
+        <v>21100</v>
       </c>
       <c r="E57" s="3">
-        <v>5900</v>
+        <v>5500</v>
       </c>
       <c r="F57" s="3">
-        <v>15600</v>
+        <v>14600</v>
       </c>
       <c r="G57" s="3">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="H57" s="3">
-        <v>8000</v>
+        <v>7400</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2314,13 +2314,13 @@
         <v>3</v>
       </c>
       <c r="E58" s="3">
-        <v>7700</v>
+        <v>7200</v>
       </c>
       <c r="F58" s="3">
-        <v>20100</v>
+        <v>18800</v>
       </c>
       <c r="G58" s="3">
-        <v>165500</v>
+        <v>154600</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -2347,19 +2347,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>306300</v>
+        <v>286100</v>
       </c>
       <c r="E59" s="3">
-        <v>79900</v>
+        <v>74600</v>
       </c>
       <c r="F59" s="3">
-        <v>9300</v>
+        <v>8700</v>
       </c>
       <c r="G59" s="3">
-        <v>10300</v>
+        <v>9600</v>
       </c>
       <c r="H59" s="3">
-        <v>46600</v>
+        <v>43600</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2383,19 +2383,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>328900</v>
+        <v>307300</v>
       </c>
       <c r="E60" s="3">
-        <v>93500</v>
+        <v>87300</v>
       </c>
       <c r="F60" s="3">
-        <v>45000</v>
+        <v>42000</v>
       </c>
       <c r="G60" s="3">
-        <v>183300</v>
+        <v>171200</v>
       </c>
       <c r="H60" s="3">
-        <v>54600</v>
+        <v>51000</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2455,13 +2455,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="E62" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="F62" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2599,19 +2599,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>342900</v>
+        <v>320300</v>
       </c>
       <c r="E66" s="3">
-        <v>95300</v>
+        <v>89000</v>
       </c>
       <c r="F66" s="3">
-        <v>47100</v>
+        <v>44000</v>
       </c>
       <c r="G66" s="3">
-        <v>183300</v>
+        <v>171200</v>
       </c>
       <c r="H66" s="3">
-        <v>54600</v>
+        <v>51000</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2795,19 +2795,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>142300</v>
+        <v>132900</v>
       </c>
       <c r="E72" s="3">
-        <v>-173300</v>
+        <v>-161900</v>
       </c>
       <c r="F72" s="3">
-        <v>-139300</v>
+        <v>-130200</v>
       </c>
       <c r="G72" s="3">
-        <v>23900</v>
+        <v>22300</v>
       </c>
       <c r="H72" s="3">
-        <v>68400</v>
+        <v>63900</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2939,19 +2939,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>545600</v>
+        <v>509700</v>
       </c>
       <c r="E76" s="3">
-        <v>68200</v>
+        <v>63700</v>
       </c>
       <c r="F76" s="3">
-        <v>109300</v>
+        <v>102100</v>
       </c>
       <c r="G76" s="3">
-        <v>38000</v>
+        <v>35500</v>
       </c>
       <c r="H76" s="3">
-        <v>135200</v>
+        <v>126300</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -3052,19 +3052,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>315600</v>
+        <v>294800</v>
       </c>
       <c r="E81" s="3">
-        <v>-33900</v>
+        <v>-31700</v>
       </c>
       <c r="F81" s="3">
-        <v>-163200</v>
+        <v>-152400</v>
       </c>
       <c r="G81" s="3">
-        <v>19300</v>
+        <v>18000</v>
       </c>
       <c r="H81" s="3">
-        <v>59300</v>
+        <v>55400</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -3107,16 +3107,16 @@
         <v>3</v>
       </c>
       <c r="E83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G83" s="3">
         <v>1900</v>
       </c>
-      <c r="F83" s="3">
-        <v>2200</v>
-      </c>
-      <c r="G83" s="3">
-        <v>2100</v>
-      </c>
       <c r="H83" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -3323,16 +3323,16 @@
         <v>3</v>
       </c>
       <c r="E89" s="3">
-        <v>6700</v>
+        <v>6200</v>
       </c>
       <c r="F89" s="3">
-        <v>-44200</v>
+        <v>-41300</v>
       </c>
       <c r="G89" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="H89" s="3">
-        <v>14400</v>
+        <v>13400</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3378,13 +3378,13 @@
         <v>-300</v>
       </c>
       <c r="F91" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="G91" s="3">
-        <v>-3900</v>
+        <v>-3700</v>
       </c>
       <c r="H91" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3483,16 +3483,16 @@
         <v>3</v>
       </c>
       <c r="E94" s="3">
-        <v>-7800</v>
+        <v>-7300</v>
       </c>
       <c r="F94" s="3">
-        <v>-2600</v>
+        <v>-2400</v>
       </c>
       <c r="G94" s="3">
-        <v>13200</v>
+        <v>12400</v>
       </c>
       <c r="H94" s="3">
-        <v>-13700</v>
+        <v>-12800</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3679,16 +3679,16 @@
         <v>3</v>
       </c>
       <c r="E100" s="3">
-        <v>-17700</v>
+        <v>-16500</v>
       </c>
       <c r="F100" s="3">
-        <v>43800</v>
+        <v>41000</v>
       </c>
       <c r="G100" s="3">
-        <v>46600</v>
+        <v>43500</v>
       </c>
       <c r="H100" s="3">
-        <v>23700</v>
+        <v>22100</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3715,13 +3715,13 @@
         <v>3</v>
       </c>
       <c r="E101" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="F101" s="3">
         <v>-300</v>
       </c>
       <c r="G101" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H101" s="3">
         <v>-200</v>
@@ -3751,16 +3751,16 @@
         <v>3</v>
       </c>
       <c r="E102" s="3">
-        <v>-20400</v>
+        <v>-19000</v>
       </c>
       <c r="F102" s="3">
-        <v>-3200</v>
+        <v>-3000</v>
       </c>
       <c r="G102" s="3">
-        <v>58200</v>
+        <v>54300</v>
       </c>
       <c r="H102" s="3">
-        <v>24200</v>
+        <v>22600</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/CAN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CAN_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="92">
   <si>
     <t>CAN</t>
   </si>
@@ -721,19 +721,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>734800</v>
+        <v>728200</v>
       </c>
       <c r="E8" s="3">
-        <v>66000</v>
+        <v>65400</v>
       </c>
       <c r="F8" s="3">
-        <v>209600</v>
+        <v>207700</v>
       </c>
       <c r="G8" s="3">
-        <v>398700</v>
+        <v>395100</v>
       </c>
       <c r="H8" s="3">
-        <v>192800</v>
+        <v>191000</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -757,19 +757,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>314800</v>
+        <v>311900</v>
       </c>
       <c r="E9" s="3">
-        <v>60400</v>
+        <v>59900</v>
       </c>
       <c r="F9" s="3">
-        <v>285700</v>
+        <v>283100</v>
       </c>
       <c r="G9" s="3">
-        <v>323800</v>
+        <v>320900</v>
       </c>
       <c r="H9" s="3">
-        <v>103700</v>
+        <v>102800</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -793,19 +793,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>420100</v>
+        <v>416300</v>
       </c>
       <c r="E10" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="F10" s="3">
-        <v>-76000</v>
+        <v>-75400</v>
       </c>
       <c r="G10" s="3">
-        <v>74900</v>
+        <v>74200</v>
       </c>
       <c r="H10" s="3">
-        <v>89100</v>
+        <v>88300</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -845,19 +845,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>49000</v>
+        <v>48200</v>
       </c>
       <c r="E12" s="3">
-        <v>20100</v>
+        <v>19900</v>
       </c>
       <c r="F12" s="3">
-        <v>24400</v>
+        <v>24100</v>
       </c>
       <c r="G12" s="3">
-        <v>27200</v>
+        <v>26900</v>
       </c>
       <c r="H12" s="3">
-        <v>14100</v>
+        <v>14000</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -952,8 +952,8 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
+      <c r="D15" s="3">
+        <v>1400</v>
       </c>
       <c r="E15" s="3">
         <v>1700</v>
@@ -962,7 +962,7 @@
         <v>1700</v>
       </c>
       <c r="G15" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="H15" s="3">
         <v>1300</v>
@@ -1002,19 +1002,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>465400</v>
+        <v>461200</v>
       </c>
       <c r="E17" s="3">
-        <v>103400</v>
+        <v>102400</v>
       </c>
       <c r="F17" s="3">
-        <v>365000</v>
+        <v>361700</v>
       </c>
       <c r="G17" s="3">
-        <v>379000</v>
+        <v>375600</v>
       </c>
       <c r="H17" s="3">
-        <v>140000</v>
+        <v>138700</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1038,19 +1038,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>269400</v>
+        <v>267000</v>
       </c>
       <c r="E18" s="3">
-        <v>-37400</v>
+        <v>-37100</v>
       </c>
       <c r="F18" s="3">
-        <v>-155400</v>
+        <v>-154000</v>
       </c>
       <c r="G18" s="3">
-        <v>19600</v>
+        <v>19400</v>
       </c>
       <c r="H18" s="3">
-        <v>52800</v>
+        <v>52300</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1090,7 +1090,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>32700</v>
+        <v>32400</v>
       </c>
       <c r="E20" s="3">
         <v>6200</v>
@@ -1099,7 +1099,7 @@
         <v>5900</v>
       </c>
       <c r="G20" s="3">
-        <v>17700</v>
+        <v>17600</v>
       </c>
       <c r="H20" s="3">
         <v>6300</v>
@@ -1125,20 +1125,20 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>301000</v>
       </c>
       <c r="E21" s="3">
-        <v>-29400</v>
+        <v>-29200</v>
       </c>
       <c r="F21" s="3">
-        <v>-147500</v>
+        <v>-146100</v>
       </c>
       <c r="G21" s="3">
-        <v>39300</v>
+        <v>38900</v>
       </c>
       <c r="H21" s="3">
-        <v>60400</v>
+        <v>59900</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1168,10 +1168,10 @@
         <v>500</v>
       </c>
       <c r="F22" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="G22" s="3">
-        <v>7800</v>
+        <v>7700</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1198,19 +1198,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>302100</v>
+        <v>299400</v>
       </c>
       <c r="E23" s="3">
-        <v>-31700</v>
+        <v>-31400</v>
       </c>
       <c r="F23" s="3">
-        <v>-152400</v>
+        <v>-151100</v>
       </c>
       <c r="G23" s="3">
-        <v>29500</v>
+        <v>29200</v>
       </c>
       <c r="H23" s="3">
-        <v>59100</v>
+        <v>58600</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1234,7 +1234,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1243,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>11500</v>
+        <v>11400</v>
       </c>
       <c r="H24" s="3">
         <v>3700</v>
@@ -1306,19 +1306,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>294800</v>
+        <v>292100</v>
       </c>
       <c r="E26" s="3">
-        <v>-31700</v>
+        <v>-31400</v>
       </c>
       <c r="F26" s="3">
-        <v>-152400</v>
+        <v>-151100</v>
       </c>
       <c r="G26" s="3">
-        <v>18000</v>
+        <v>17900</v>
       </c>
       <c r="H26" s="3">
-        <v>55400</v>
+        <v>54900</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1342,19 +1342,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>294800</v>
+        <v>292100</v>
       </c>
       <c r="E27" s="3">
-        <v>-31700</v>
+        <v>-31400</v>
       </c>
       <c r="F27" s="3">
-        <v>-152400</v>
+        <v>-151100</v>
       </c>
       <c r="G27" s="3">
-        <v>18000</v>
+        <v>17900</v>
       </c>
       <c r="H27" s="3">
-        <v>55400</v>
+        <v>54900</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1522,7 +1522,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-32700</v>
+        <v>-32400</v>
       </c>
       <c r="E32" s="3">
         <v>-6200</v>
@@ -1531,7 +1531,7 @@
         <v>-5900</v>
       </c>
       <c r="G32" s="3">
-        <v>-17700</v>
+        <v>-17600</v>
       </c>
       <c r="H32" s="3">
         <v>-6300</v>
@@ -1558,19 +1558,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>294800</v>
+        <v>292100</v>
       </c>
       <c r="E33" s="3">
-        <v>-31700</v>
+        <v>-31400</v>
       </c>
       <c r="F33" s="3">
-        <v>-152400</v>
+        <v>-151100</v>
       </c>
       <c r="G33" s="3">
-        <v>18000</v>
+        <v>17900</v>
       </c>
       <c r="H33" s="3">
-        <v>55400</v>
+        <v>54900</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1630,19 +1630,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>294800</v>
+        <v>292100</v>
       </c>
       <c r="E35" s="3">
-        <v>-31700</v>
+        <v>-31400</v>
       </c>
       <c r="F35" s="3">
-        <v>-152400</v>
+        <v>-151100</v>
       </c>
       <c r="G35" s="3">
-        <v>18000</v>
+        <v>17900</v>
       </c>
       <c r="H35" s="3">
-        <v>55400</v>
+        <v>54900</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1739,19 +1739,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>395600</v>
+        <v>392000</v>
       </c>
       <c r="E41" s="3">
-        <v>57700</v>
+        <v>57100</v>
       </c>
       <c r="F41" s="3">
-        <v>77000</v>
+        <v>76300</v>
       </c>
       <c r="G41" s="3">
-        <v>38200</v>
+        <v>37800</v>
       </c>
       <c r="H41" s="3">
-        <v>26000</v>
+        <v>25800</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1774,11 +1774,11 @@
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>3</v>
+      <c r="D42" s="3">
+        <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>9200</v>
+        <v>9100</v>
       </c>
       <c r="F42" s="3">
         <v>1600</v>
@@ -1787,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="3">
-        <v>13300</v>
+        <v>13100</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1811,16 +1811,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>42500</v>
       </c>
       <c r="E43" s="3">
-        <v>17100</v>
+        <v>17000</v>
       </c>
       <c r="F43" s="3">
-        <v>23700</v>
+        <v>23500</v>
       </c>
       <c r="G43" s="3">
-        <v>23300</v>
+        <v>23100</v>
       </c>
       <c r="H43" s="3">
         <v>4800</v>
@@ -1847,19 +1847,19 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>119700</v>
+        <v>118600</v>
       </c>
       <c r="E44" s="3">
-        <v>33200</v>
+        <v>32900</v>
       </c>
       <c r="F44" s="3">
-        <v>28900</v>
+        <v>28600</v>
       </c>
       <c r="G44" s="3">
-        <v>86300</v>
+        <v>85500</v>
       </c>
       <c r="H44" s="3">
-        <v>38300</v>
+        <v>37900</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -1883,19 +1883,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>261800</v>
+        <v>217000</v>
       </c>
       <c r="E45" s="3">
-        <v>31200</v>
+        <v>30900</v>
       </c>
       <c r="F45" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="G45" s="3">
-        <v>53900</v>
+        <v>53400</v>
       </c>
       <c r="H45" s="3">
-        <v>91500</v>
+        <v>90600</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1919,19 +1919,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>777100</v>
+        <v>770100</v>
       </c>
       <c r="E46" s="3">
-        <v>148400</v>
+        <v>147100</v>
       </c>
       <c r="F46" s="3">
-        <v>138600</v>
+        <v>137400</v>
       </c>
       <c r="G46" s="3">
-        <v>201700</v>
+        <v>199800</v>
       </c>
       <c r="H46" s="3">
-        <v>173800</v>
+        <v>172300</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1991,13 +1991,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>31900</v>
+        <v>31600</v>
       </c>
       <c r="E48" s="3">
         <v>3900</v>
       </c>
       <c r="F48" s="3">
-        <v>6700</v>
+        <v>6600</v>
       </c>
       <c r="G48" s="3">
         <v>4100</v>
@@ -2027,25 +2027,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>3000</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>18000</v>
+        <v>14900</v>
       </c>
       <c r="E52" s="3">
         <v>400</v>
@@ -2207,19 +2207,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>830000</v>
+        <v>822500</v>
       </c>
       <c r="E54" s="3">
-        <v>152700</v>
+        <v>151300</v>
       </c>
       <c r="F54" s="3">
-        <v>146100</v>
+        <v>144800</v>
       </c>
       <c r="G54" s="3">
-        <v>206700</v>
+        <v>204800</v>
       </c>
       <c r="H54" s="3">
-        <v>177300</v>
+        <v>175700</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2275,16 +2275,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>21100</v>
+        <v>20900</v>
       </c>
       <c r="E57" s="3">
         <v>5500</v>
       </c>
       <c r="F57" s="3">
-        <v>14600</v>
+        <v>14500</v>
       </c>
       <c r="G57" s="3">
-        <v>7000</v>
+        <v>6900</v>
       </c>
       <c r="H57" s="3">
         <v>7400</v>
@@ -2310,17 +2310,17 @@
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>7200</v>
+        <v>7100</v>
       </c>
       <c r="F58" s="3">
-        <v>18800</v>
+        <v>18600</v>
       </c>
       <c r="G58" s="3">
-        <v>154600</v>
+        <v>153200</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -2347,19 +2347,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>286100</v>
+        <v>283500</v>
       </c>
       <c r="E59" s="3">
-        <v>74600</v>
+        <v>73900</v>
       </c>
       <c r="F59" s="3">
-        <v>8700</v>
+        <v>8600</v>
       </c>
       <c r="G59" s="3">
         <v>9600</v>
       </c>
       <c r="H59" s="3">
-        <v>43600</v>
+        <v>43200</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2383,19 +2383,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>307300</v>
+        <v>304500</v>
       </c>
       <c r="E60" s="3">
-        <v>87300</v>
+        <v>86500</v>
       </c>
       <c r="F60" s="3">
-        <v>42000</v>
+        <v>41700</v>
       </c>
       <c r="G60" s="3">
-        <v>171200</v>
+        <v>169600</v>
       </c>
       <c r="H60" s="3">
-        <v>51000</v>
+        <v>50500</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2455,7 +2455,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>13000</v>
+        <v>12900</v>
       </c>
       <c r="E62" s="3">
         <v>1700</v>
@@ -2599,19 +2599,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>320300</v>
+        <v>317400</v>
       </c>
       <c r="E66" s="3">
-        <v>89000</v>
+        <v>88200</v>
       </c>
       <c r="F66" s="3">
-        <v>44000</v>
+        <v>43600</v>
       </c>
       <c r="G66" s="3">
-        <v>171200</v>
+        <v>169600</v>
       </c>
       <c r="H66" s="3">
-        <v>51000</v>
+        <v>50500</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2795,19 +2795,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>132900</v>
+        <v>131500</v>
       </c>
       <c r="E72" s="3">
-        <v>-161900</v>
+        <v>-160400</v>
       </c>
       <c r="F72" s="3">
-        <v>-130200</v>
+        <v>-129000</v>
       </c>
       <c r="G72" s="3">
-        <v>22300</v>
+        <v>22100</v>
       </c>
       <c r="H72" s="3">
-        <v>63900</v>
+        <v>63300</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2939,19 +2939,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>509700</v>
+        <v>505100</v>
       </c>
       <c r="E76" s="3">
-        <v>63700</v>
+        <v>63200</v>
       </c>
       <c r="F76" s="3">
-        <v>102100</v>
+        <v>101200</v>
       </c>
       <c r="G76" s="3">
-        <v>35500</v>
+        <v>35200</v>
       </c>
       <c r="H76" s="3">
-        <v>126300</v>
+        <v>125200</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -3052,19 +3052,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>294800</v>
+        <v>292100</v>
       </c>
       <c r="E81" s="3">
-        <v>-31700</v>
+        <v>-31400</v>
       </c>
       <c r="F81" s="3">
-        <v>-152400</v>
+        <v>-151100</v>
       </c>
       <c r="G81" s="3">
-        <v>18000</v>
+        <v>17900</v>
       </c>
       <c r="H81" s="3">
-        <v>55400</v>
+        <v>54900</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -3103,8 +3103,8 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>1600</v>
       </c>
       <c r="E83" s="3">
         <v>1700</v>
@@ -3319,20 +3319,20 @@
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>210100</v>
       </c>
       <c r="E89" s="3">
         <v>6200</v>
       </c>
       <c r="F89" s="3">
-        <v>-41300</v>
+        <v>-40900</v>
       </c>
       <c r="G89" s="3">
         <v>-1900</v>
       </c>
       <c r="H89" s="3">
-        <v>13400</v>
+        <v>13300</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3371,8 +3371,8 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>-5500</v>
       </c>
       <c r="E91" s="3">
         <v>-300</v>
@@ -3381,10 +3381,10 @@
         <v>-1200</v>
       </c>
       <c r="G91" s="3">
-        <v>-3700</v>
+        <v>-3600</v>
       </c>
       <c r="H91" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3479,20 +3479,20 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>700</v>
       </c>
       <c r="E94" s="3">
-        <v>-7300</v>
+        <v>-7200</v>
       </c>
       <c r="F94" s="3">
         <v>-2400</v>
       </c>
       <c r="G94" s="3">
-        <v>12400</v>
+        <v>12300</v>
       </c>
       <c r="H94" s="3">
-        <v>-12800</v>
+        <v>-12700</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3675,20 +3675,20 @@
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>132300</v>
       </c>
       <c r="E100" s="3">
-        <v>-16500</v>
+        <v>-16300</v>
       </c>
       <c r="F100" s="3">
-        <v>41000</v>
+        <v>40600</v>
       </c>
       <c r="G100" s="3">
-        <v>43500</v>
+        <v>43100</v>
       </c>
       <c r="H100" s="3">
-        <v>22100</v>
+        <v>21900</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3711,8 +3711,8 @@
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>-2000</v>
       </c>
       <c r="E101" s="3">
         <v>-1400</v>
@@ -3747,20 +3747,20 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>341100</v>
       </c>
       <c r="E102" s="3">
-        <v>-19000</v>
+        <v>-18800</v>
       </c>
       <c r="F102" s="3">
         <v>-3000</v>
       </c>
       <c r="G102" s="3">
-        <v>54300</v>
+        <v>53800</v>
       </c>
       <c r="H102" s="3">
-        <v>22600</v>
+        <v>22400</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/CAN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CAN_YR_FIN.xlsx
@@ -721,19 +721,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>728200</v>
+        <v>694100</v>
       </c>
       <c r="E8" s="3">
-        <v>65400</v>
+        <v>62300</v>
       </c>
       <c r="F8" s="3">
-        <v>207700</v>
+        <v>198000</v>
       </c>
       <c r="G8" s="3">
-        <v>395100</v>
+        <v>376600</v>
       </c>
       <c r="H8" s="3">
-        <v>191000</v>
+        <v>182100</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -757,19 +757,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>311900</v>
+        <v>297300</v>
       </c>
       <c r="E9" s="3">
-        <v>59900</v>
+        <v>57100</v>
       </c>
       <c r="F9" s="3">
-        <v>283100</v>
+        <v>269900</v>
       </c>
       <c r="G9" s="3">
-        <v>320900</v>
+        <v>305800</v>
       </c>
       <c r="H9" s="3">
-        <v>102800</v>
+        <v>98000</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -793,19 +793,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>416300</v>
+        <v>396800</v>
       </c>
       <c r="E10" s="3">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="F10" s="3">
-        <v>-75400</v>
+        <v>-71800</v>
       </c>
       <c r="G10" s="3">
-        <v>74200</v>
+        <v>70700</v>
       </c>
       <c r="H10" s="3">
-        <v>88300</v>
+        <v>84100</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -845,19 +845,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>48200</v>
+        <v>45900</v>
       </c>
       <c r="E12" s="3">
-        <v>19900</v>
+        <v>19000</v>
       </c>
       <c r="F12" s="3">
-        <v>24100</v>
+        <v>23000</v>
       </c>
       <c r="G12" s="3">
-        <v>26900</v>
+        <v>25700</v>
       </c>
       <c r="H12" s="3">
-        <v>14000</v>
+        <v>13400</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -953,13 +953,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="E15" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="F15" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="G15" s="3">
         <v>1700</v>
@@ -1002,19 +1002,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>461200</v>
+        <v>439600</v>
       </c>
       <c r="E17" s="3">
-        <v>102400</v>
+        <v>97700</v>
       </c>
       <c r="F17" s="3">
-        <v>361700</v>
+        <v>344800</v>
       </c>
       <c r="G17" s="3">
-        <v>375600</v>
+        <v>358100</v>
       </c>
       <c r="H17" s="3">
-        <v>138700</v>
+        <v>132200</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1038,19 +1038,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>267000</v>
+        <v>254500</v>
       </c>
       <c r="E18" s="3">
-        <v>-37100</v>
+        <v>-35300</v>
       </c>
       <c r="F18" s="3">
-        <v>-154000</v>
+        <v>-146800</v>
       </c>
       <c r="G18" s="3">
-        <v>19400</v>
+        <v>18500</v>
       </c>
       <c r="H18" s="3">
-        <v>52300</v>
+        <v>49800</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1090,19 +1090,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>32400</v>
+        <v>30900</v>
       </c>
       <c r="E20" s="3">
-        <v>6200</v>
+        <v>5900</v>
       </c>
       <c r="F20" s="3">
-        <v>5900</v>
+        <v>5600</v>
       </c>
       <c r="G20" s="3">
-        <v>17600</v>
+        <v>16700</v>
       </c>
       <c r="H20" s="3">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1126,19 +1126,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>301000</v>
+        <v>286900</v>
       </c>
       <c r="E21" s="3">
-        <v>-29200</v>
+        <v>-27800</v>
       </c>
       <c r="F21" s="3">
-        <v>-146100</v>
+        <v>-139300</v>
       </c>
       <c r="G21" s="3">
-        <v>38900</v>
+        <v>37100</v>
       </c>
       <c r="H21" s="3">
-        <v>59900</v>
+        <v>57100</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1168,10 +1168,10 @@
         <v>500</v>
       </c>
       <c r="F22" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="G22" s="3">
-        <v>7700</v>
+        <v>7400</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1198,19 +1198,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>299400</v>
+        <v>285400</v>
       </c>
       <c r="E23" s="3">
-        <v>-31400</v>
+        <v>-29900</v>
       </c>
       <c r="F23" s="3">
-        <v>-151100</v>
+        <v>-144000</v>
       </c>
       <c r="G23" s="3">
-        <v>29200</v>
+        <v>27900</v>
       </c>
       <c r="H23" s="3">
-        <v>58600</v>
+        <v>55800</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1234,7 +1234,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1243,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>11400</v>
+        <v>10800</v>
       </c>
       <c r="H24" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1306,19 +1306,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>292100</v>
+        <v>278400</v>
       </c>
       <c r="E26" s="3">
-        <v>-31400</v>
+        <v>-29900</v>
       </c>
       <c r="F26" s="3">
-        <v>-151100</v>
+        <v>-144000</v>
       </c>
       <c r="G26" s="3">
-        <v>17900</v>
+        <v>17000</v>
       </c>
       <c r="H26" s="3">
-        <v>54900</v>
+        <v>52300</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1342,19 +1342,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>292100</v>
+        <v>278400</v>
       </c>
       <c r="E27" s="3">
-        <v>-31400</v>
+        <v>-29900</v>
       </c>
       <c r="F27" s="3">
-        <v>-151100</v>
+        <v>-144000</v>
       </c>
       <c r="G27" s="3">
-        <v>17900</v>
+        <v>17000</v>
       </c>
       <c r="H27" s="3">
-        <v>54900</v>
+        <v>52300</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1522,19 +1522,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-32400</v>
+        <v>-30900</v>
       </c>
       <c r="E32" s="3">
-        <v>-6200</v>
+        <v>-5900</v>
       </c>
       <c r="F32" s="3">
-        <v>-5900</v>
+        <v>-5600</v>
       </c>
       <c r="G32" s="3">
-        <v>-17600</v>
+        <v>-16700</v>
       </c>
       <c r="H32" s="3">
-        <v>-6300</v>
+        <v>-6000</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1558,19 +1558,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>292100</v>
+        <v>278400</v>
       </c>
       <c r="E33" s="3">
-        <v>-31400</v>
+        <v>-29900</v>
       </c>
       <c r="F33" s="3">
-        <v>-151100</v>
+        <v>-144000</v>
       </c>
       <c r="G33" s="3">
-        <v>17900</v>
+        <v>17000</v>
       </c>
       <c r="H33" s="3">
-        <v>54900</v>
+        <v>52300</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1630,19 +1630,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>292100</v>
+        <v>278400</v>
       </c>
       <c r="E35" s="3">
-        <v>-31400</v>
+        <v>-29900</v>
       </c>
       <c r="F35" s="3">
-        <v>-151100</v>
+        <v>-144000</v>
       </c>
       <c r="G35" s="3">
-        <v>17900</v>
+        <v>17000</v>
       </c>
       <c r="H35" s="3">
-        <v>54900</v>
+        <v>52300</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1739,19 +1739,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>392000</v>
+        <v>373700</v>
       </c>
       <c r="E41" s="3">
-        <v>57100</v>
+        <v>54500</v>
       </c>
       <c r="F41" s="3">
-        <v>76300</v>
+        <v>72700</v>
       </c>
       <c r="G41" s="3">
-        <v>37800</v>
+        <v>36000</v>
       </c>
       <c r="H41" s="3">
-        <v>25800</v>
+        <v>24600</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1778,16 +1778,16 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>9100</v>
+        <v>8700</v>
       </c>
       <c r="F42" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
       </c>
       <c r="H42" s="3">
-        <v>13100</v>
+        <v>12500</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1811,19 +1811,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>42500</v>
+        <v>40500</v>
       </c>
       <c r="E43" s="3">
-        <v>17000</v>
+        <v>16200</v>
       </c>
       <c r="F43" s="3">
-        <v>23500</v>
+        <v>22400</v>
       </c>
       <c r="G43" s="3">
-        <v>23100</v>
+        <v>22000</v>
       </c>
       <c r="H43" s="3">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1847,19 +1847,19 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>118600</v>
+        <v>113100</v>
       </c>
       <c r="E44" s="3">
-        <v>32900</v>
+        <v>31400</v>
       </c>
       <c r="F44" s="3">
-        <v>28600</v>
+        <v>27300</v>
       </c>
       <c r="G44" s="3">
-        <v>85500</v>
+        <v>81500</v>
       </c>
       <c r="H44" s="3">
-        <v>37900</v>
+        <v>36200</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -1883,19 +1883,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>217000</v>
+        <v>206800</v>
       </c>
       <c r="E45" s="3">
-        <v>30900</v>
+        <v>29500</v>
       </c>
       <c r="F45" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="G45" s="3">
-        <v>53400</v>
+        <v>50900</v>
       </c>
       <c r="H45" s="3">
-        <v>90600</v>
+        <v>86400</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1919,19 +1919,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>770100</v>
+        <v>734100</v>
       </c>
       <c r="E46" s="3">
-        <v>147100</v>
+        <v>140200</v>
       </c>
       <c r="F46" s="3">
-        <v>137400</v>
+        <v>131000</v>
       </c>
       <c r="G46" s="3">
-        <v>199800</v>
+        <v>190500</v>
       </c>
       <c r="H46" s="3">
-        <v>172300</v>
+        <v>164200</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1955,7 +1955,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="E47" s="3">
         <v>0</v>
@@ -1991,19 +1991,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>31600</v>
+        <v>30100</v>
       </c>
       <c r="E48" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F48" s="3">
+        <v>6300</v>
+      </c>
+      <c r="G48" s="3">
         <v>3900</v>
       </c>
-      <c r="F48" s="3">
-        <v>6600</v>
-      </c>
-      <c r="G48" s="3">
-        <v>4100</v>
-      </c>
       <c r="H48" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -2027,7 +2027,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>3</v>
@@ -2135,19 +2135,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>14900</v>
+        <v>14200</v>
       </c>
       <c r="E52" s="3">
         <v>400</v>
       </c>
       <c r="F52" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G52" s="3">
         <v>900</v>
       </c>
       <c r="H52" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2207,19 +2207,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>822500</v>
+        <v>784000</v>
       </c>
       <c r="E54" s="3">
-        <v>151300</v>
+        <v>144300</v>
       </c>
       <c r="F54" s="3">
-        <v>144800</v>
+        <v>138000</v>
       </c>
       <c r="G54" s="3">
-        <v>204800</v>
+        <v>195300</v>
       </c>
       <c r="H54" s="3">
-        <v>175700</v>
+        <v>167500</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2275,19 +2275,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>20900</v>
+        <v>20000</v>
       </c>
       <c r="E57" s="3">
-        <v>5500</v>
+        <v>5200</v>
       </c>
       <c r="F57" s="3">
-        <v>14500</v>
+        <v>13800</v>
       </c>
       <c r="G57" s="3">
-        <v>6900</v>
+        <v>6600</v>
       </c>
       <c r="H57" s="3">
-        <v>7400</v>
+        <v>7000</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2314,13 +2314,13 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>7100</v>
+        <v>6800</v>
       </c>
       <c r="F58" s="3">
-        <v>18600</v>
+        <v>17700</v>
       </c>
       <c r="G58" s="3">
-        <v>153200</v>
+        <v>146000</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -2347,19 +2347,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>283500</v>
+        <v>270300</v>
       </c>
       <c r="E59" s="3">
-        <v>73900</v>
+        <v>70500</v>
       </c>
       <c r="F59" s="3">
-        <v>8600</v>
+        <v>8200</v>
       </c>
       <c r="G59" s="3">
-        <v>9600</v>
+        <v>9100</v>
       </c>
       <c r="H59" s="3">
-        <v>43200</v>
+        <v>41100</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2383,19 +2383,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>304500</v>
+        <v>290200</v>
       </c>
       <c r="E60" s="3">
-        <v>86500</v>
+        <v>82500</v>
       </c>
       <c r="F60" s="3">
-        <v>41700</v>
+        <v>39700</v>
       </c>
       <c r="G60" s="3">
-        <v>169600</v>
+        <v>161700</v>
       </c>
       <c r="H60" s="3">
-        <v>50500</v>
+        <v>48200</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2455,13 +2455,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>12900</v>
+        <v>12300</v>
       </c>
       <c r="E62" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="F62" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2599,19 +2599,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>317400</v>
+        <v>302600</v>
       </c>
       <c r="E66" s="3">
-        <v>88200</v>
+        <v>84100</v>
       </c>
       <c r="F66" s="3">
-        <v>43600</v>
+        <v>41600</v>
       </c>
       <c r="G66" s="3">
-        <v>169600</v>
+        <v>161700</v>
       </c>
       <c r="H66" s="3">
-        <v>50500</v>
+        <v>48200</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2795,19 +2795,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>131500</v>
+        <v>125400</v>
       </c>
       <c r="E72" s="3">
-        <v>-160400</v>
+        <v>-152900</v>
       </c>
       <c r="F72" s="3">
-        <v>-129000</v>
+        <v>-123000</v>
       </c>
       <c r="G72" s="3">
-        <v>22100</v>
+        <v>21100</v>
       </c>
       <c r="H72" s="3">
-        <v>63300</v>
+        <v>60400</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2939,19 +2939,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>505100</v>
+        <v>481400</v>
       </c>
       <c r="E76" s="3">
-        <v>63200</v>
+        <v>60200</v>
       </c>
       <c r="F76" s="3">
-        <v>101200</v>
+        <v>96400</v>
       </c>
       <c r="G76" s="3">
-        <v>35200</v>
+        <v>33500</v>
       </c>
       <c r="H76" s="3">
-        <v>125200</v>
+        <v>119300</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -3052,19 +3052,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>292100</v>
+        <v>278400</v>
       </c>
       <c r="E81" s="3">
-        <v>-31400</v>
+        <v>-29900</v>
       </c>
       <c r="F81" s="3">
-        <v>-151100</v>
+        <v>-144000</v>
       </c>
       <c r="G81" s="3">
-        <v>17900</v>
+        <v>17000</v>
       </c>
       <c r="H81" s="3">
-        <v>54900</v>
+        <v>52300</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -3104,16 +3104,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E83" s="3">
         <v>1600</v>
       </c>
-      <c r="E83" s="3">
-        <v>1700</v>
-      </c>
       <c r="F83" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="G83" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="H83" s="3">
         <v>1300</v>
@@ -3320,19 +3320,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>210100</v>
+        <v>200300</v>
       </c>
       <c r="E89" s="3">
-        <v>6200</v>
+        <v>5900</v>
       </c>
       <c r="F89" s="3">
-        <v>-40900</v>
+        <v>-39000</v>
       </c>
       <c r="G89" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="H89" s="3">
-        <v>13300</v>
+        <v>12700</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3372,7 +3372,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-5500</v>
+        <v>-5200</v>
       </c>
       <c r="E91" s="3">
         <v>-300</v>
@@ -3381,7 +3381,7 @@
         <v>-1200</v>
       </c>
       <c r="G91" s="3">
-        <v>-3600</v>
+        <v>-3500</v>
       </c>
       <c r="H91" s="3">
         <v>-1800</v>
@@ -3483,16 +3483,16 @@
         <v>700</v>
       </c>
       <c r="E94" s="3">
-        <v>-7200</v>
+        <v>-6900</v>
       </c>
       <c r="F94" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="G94" s="3">
-        <v>12300</v>
+        <v>11700</v>
       </c>
       <c r="H94" s="3">
-        <v>-12700</v>
+        <v>-12100</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3676,19 +3676,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>132300</v>
+        <v>126100</v>
       </c>
       <c r="E100" s="3">
-        <v>-16300</v>
+        <v>-15600</v>
       </c>
       <c r="F100" s="3">
-        <v>40600</v>
+        <v>38700</v>
       </c>
       <c r="G100" s="3">
-        <v>43100</v>
+        <v>41100</v>
       </c>
       <c r="H100" s="3">
-        <v>21900</v>
+        <v>20900</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3712,7 +3712,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="E101" s="3">
         <v>-1400</v>
@@ -3748,19 +3748,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>341100</v>
+        <v>325200</v>
       </c>
       <c r="E102" s="3">
-        <v>-18800</v>
+        <v>-18000</v>
       </c>
       <c r="F102" s="3">
-        <v>-3000</v>
+        <v>-2800</v>
       </c>
       <c r="G102" s="3">
-        <v>53800</v>
+        <v>51300</v>
       </c>
       <c r="H102" s="3">
-        <v>22400</v>
+        <v>21300</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/CAN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CAN_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="92">
   <si>
     <t>CAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,43 +665,43 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -714,29 +714,32 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>694100</v>
+        <v>628900</v>
       </c>
       <c r="E8" s="3">
-        <v>62300</v>
+        <v>716200</v>
       </c>
       <c r="F8" s="3">
-        <v>198000</v>
+        <v>64300</v>
       </c>
       <c r="G8" s="3">
-        <v>376600</v>
+        <v>204300</v>
       </c>
       <c r="H8" s="3">
-        <v>182100</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
+        <v>388500</v>
+      </c>
+      <c r="I8" s="3">
+        <v>187900</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -750,29 +753,32 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>297300</v>
+        <v>377900</v>
       </c>
       <c r="E9" s="3">
-        <v>57100</v>
+        <v>306800</v>
       </c>
       <c r="F9" s="3">
-        <v>269900</v>
+        <v>58900</v>
       </c>
       <c r="G9" s="3">
-        <v>305800</v>
+        <v>278400</v>
       </c>
       <c r="H9" s="3">
-        <v>98000</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
+        <v>315600</v>
+      </c>
+      <c r="I9" s="3">
+        <v>101100</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -786,29 +792,32 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>396800</v>
+        <v>251000</v>
       </c>
       <c r="E10" s="3">
-        <v>5300</v>
+        <v>409400</v>
       </c>
       <c r="F10" s="3">
-        <v>-71800</v>
+        <v>5400</v>
       </c>
       <c r="G10" s="3">
-        <v>70700</v>
+        <v>-74100</v>
       </c>
       <c r="H10" s="3">
-        <v>84100</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
+        <v>73000</v>
+      </c>
+      <c r="I10" s="3">
+        <v>86800</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -822,9 +831,12 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,28 +851,29 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>45900</v>
+        <v>78500</v>
       </c>
       <c r="E12" s="3">
-        <v>19000</v>
+        <v>47400</v>
       </c>
       <c r="F12" s="3">
-        <v>23000</v>
+        <v>19600</v>
       </c>
       <c r="G12" s="3">
-        <v>25700</v>
+        <v>23700</v>
       </c>
       <c r="H12" s="3">
-        <v>13400</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
+        <v>26500</v>
+      </c>
+      <c r="I12" s="3">
+        <v>13800</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -874,9 +887,12 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,14 +926,17 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>7600</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -925,15 +944,15 @@
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
@@ -946,30 +965,33 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3">
         <v>1300</v>
       </c>
-      <c r="E15" s="3">
-        <v>1600</v>
-      </c>
       <c r="F15" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="G15" s="3">
         <v>1700</v>
       </c>
       <c r="H15" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I15" s="3">
         <v>1300</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
@@ -982,9 +1004,12 @@
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -996,28 +1021,29 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>439600</v>
+        <v>556400</v>
       </c>
       <c r="E17" s="3">
-        <v>97700</v>
+        <v>453600</v>
       </c>
       <c r="F17" s="3">
-        <v>344800</v>
+        <v>100800</v>
       </c>
       <c r="G17" s="3">
-        <v>358100</v>
+        <v>355800</v>
       </c>
       <c r="H17" s="3">
-        <v>132200</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+        <v>369400</v>
+      </c>
+      <c r="I17" s="3">
+        <v>136400</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1031,29 +1057,32 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>254500</v>
+        <v>72500</v>
       </c>
       <c r="E18" s="3">
-        <v>-35300</v>
+        <v>262600</v>
       </c>
       <c r="F18" s="3">
-        <v>-146800</v>
+        <v>-36500</v>
       </c>
       <c r="G18" s="3">
-        <v>18500</v>
+        <v>-151500</v>
       </c>
       <c r="H18" s="3">
-        <v>49800</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+        <v>19100</v>
+      </c>
+      <c r="I18" s="3">
+        <v>51400</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1067,9 +1096,12 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1084,28 +1116,29 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>30900</v>
+        <v>43900</v>
       </c>
       <c r="E20" s="3">
-        <v>5900</v>
+        <v>31900</v>
       </c>
       <c r="F20" s="3">
-        <v>5600</v>
+        <v>6100</v>
       </c>
       <c r="G20" s="3">
-        <v>16700</v>
+        <v>5800</v>
       </c>
       <c r="H20" s="3">
-        <v>6000</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+        <v>17300</v>
+      </c>
+      <c r="I20" s="3">
+        <v>6200</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1119,26 +1152,29 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>286900</v>
+        <v>118000</v>
       </c>
       <c r="E21" s="3">
-        <v>-27800</v>
+        <v>296200</v>
       </c>
       <c r="F21" s="3">
-        <v>-139300</v>
+        <v>-28400</v>
       </c>
       <c r="G21" s="3">
-        <v>37100</v>
+        <v>-143800</v>
       </c>
       <c r="H21" s="3">
-        <v>57100</v>
+        <v>37700</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1155,29 +1191,32 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>500</v>
       </c>
-      <c r="F22" s="3">
-        <v>2800</v>
-      </c>
       <c r="G22" s="3">
-        <v>7400</v>
+        <v>2900</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
+        <v>7600</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
@@ -1191,29 +1230,32 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>285400</v>
+        <v>116400</v>
       </c>
       <c r="E23" s="3">
-        <v>-29900</v>
+        <v>294500</v>
       </c>
       <c r="F23" s="3">
-        <v>-144000</v>
+        <v>-30900</v>
       </c>
       <c r="G23" s="3">
-        <v>27900</v>
+        <v>-148600</v>
       </c>
       <c r="H23" s="3">
-        <v>55800</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+        <v>28800</v>
+      </c>
+      <c r="I23" s="3">
+        <v>57600</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1227,29 +1269,32 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>7000</v>
+        <v>21900</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>7200</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>10800</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>3500</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+        <v>11200</v>
+      </c>
+      <c r="I24" s="3">
+        <v>3600</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1263,9 +1308,12 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1299,29 +1347,32 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>278400</v>
+        <v>94500</v>
       </c>
       <c r="E26" s="3">
-        <v>-29900</v>
+        <v>287300</v>
       </c>
       <c r="F26" s="3">
-        <v>-144000</v>
+        <v>-30900</v>
       </c>
       <c r="G26" s="3">
-        <v>17000</v>
+        <v>-148600</v>
       </c>
       <c r="H26" s="3">
-        <v>52300</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+        <v>17600</v>
+      </c>
+      <c r="I26" s="3">
+        <v>54000</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1335,29 +1386,32 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>278400</v>
+        <v>94500</v>
       </c>
       <c r="E27" s="3">
-        <v>-29900</v>
+        <v>287300</v>
       </c>
       <c r="F27" s="3">
-        <v>-144000</v>
+        <v>-30900</v>
       </c>
       <c r="G27" s="3">
-        <v>17000</v>
+        <v>-148600</v>
       </c>
       <c r="H27" s="3">
-        <v>52300</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+        <v>17600</v>
+      </c>
+      <c r="I27" s="3">
+        <v>54000</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1371,9 +1425,12 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1407,9 +1464,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1443,9 +1503,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1479,9 +1542,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1515,29 +1581,32 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-30900</v>
+        <v>-43900</v>
       </c>
       <c r="E32" s="3">
-        <v>-5900</v>
+        <v>-31900</v>
       </c>
       <c r="F32" s="3">
-        <v>-5600</v>
+        <v>-6100</v>
       </c>
       <c r="G32" s="3">
-        <v>-16700</v>
+        <v>-5800</v>
       </c>
       <c r="H32" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+        <v>-17300</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-6200</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1551,29 +1620,32 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>278400</v>
+        <v>94500</v>
       </c>
       <c r="E33" s="3">
-        <v>-29900</v>
+        <v>287300</v>
       </c>
       <c r="F33" s="3">
-        <v>-144000</v>
+        <v>-30900</v>
       </c>
       <c r="G33" s="3">
-        <v>17000</v>
+        <v>-148600</v>
       </c>
       <c r="H33" s="3">
-        <v>52300</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+        <v>17600</v>
+      </c>
+      <c r="I33" s="3">
+        <v>54000</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1587,9 +1659,12 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1623,29 +1698,32 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>278400</v>
+        <v>94500</v>
       </c>
       <c r="E35" s="3">
-        <v>-29900</v>
+        <v>287300</v>
       </c>
       <c r="F35" s="3">
-        <v>-144000</v>
+        <v>-30900</v>
       </c>
       <c r="G35" s="3">
-        <v>17000</v>
+        <v>-148600</v>
       </c>
       <c r="H35" s="3">
-        <v>52300</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+        <v>17600</v>
+      </c>
+      <c r="I35" s="3">
+        <v>54000</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1659,35 +1737,38 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1700,9 +1781,12 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1717,8 +1801,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1733,28 +1818,29 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>373700</v>
+        <v>101600</v>
       </c>
       <c r="E41" s="3">
-        <v>54500</v>
+        <v>385500</v>
       </c>
       <c r="F41" s="3">
-        <v>72700</v>
+        <v>56200</v>
       </c>
       <c r="G41" s="3">
-        <v>36000</v>
+        <v>75000</v>
       </c>
       <c r="H41" s="3">
-        <v>24600</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+        <v>37200</v>
+      </c>
+      <c r="I41" s="3">
+        <v>25300</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1768,29 +1854,32 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E42" s="3">
-        <v>8700</v>
+        <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>1500</v>
+        <v>9000</v>
       </c>
       <c r="G42" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="H42" s="3">
-        <v>12500</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>12900</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1804,29 +1893,32 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>40500</v>
+      <c r="D43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E43" s="3">
-        <v>16200</v>
+        <v>41800</v>
       </c>
       <c r="F43" s="3">
-        <v>22400</v>
+        <v>16700</v>
       </c>
       <c r="G43" s="3">
-        <v>22000</v>
+        <v>23100</v>
       </c>
       <c r="H43" s="3">
-        <v>4500</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+        <v>22700</v>
+      </c>
+      <c r="I43" s="3">
+        <v>4700</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1840,29 +1932,32 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>113100</v>
+        <v>217200</v>
       </c>
       <c r="E44" s="3">
-        <v>31400</v>
+        <v>116700</v>
       </c>
       <c r="F44" s="3">
-        <v>27300</v>
+        <v>32400</v>
       </c>
       <c r="G44" s="3">
-        <v>81500</v>
+        <v>28200</v>
       </c>
       <c r="H44" s="3">
-        <v>36200</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
+        <v>84100</v>
+      </c>
+      <c r="I44" s="3">
+        <v>37300</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
@@ -1876,29 +1971,32 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>206800</v>
+        <v>255000</v>
       </c>
       <c r="E45" s="3">
-        <v>29500</v>
+        <v>213400</v>
       </c>
       <c r="F45" s="3">
-        <v>7000</v>
+        <v>30400</v>
       </c>
       <c r="G45" s="3">
-        <v>50900</v>
+        <v>7200</v>
       </c>
       <c r="H45" s="3">
-        <v>86400</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+        <v>52500</v>
+      </c>
+      <c r="I45" s="3">
+        <v>89100</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1912,29 +2010,32 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>734100</v>
+        <v>573700</v>
       </c>
       <c r="E46" s="3">
-        <v>140200</v>
+        <v>757400</v>
       </c>
       <c r="F46" s="3">
-        <v>131000</v>
+        <v>144700</v>
       </c>
       <c r="G46" s="3">
-        <v>190500</v>
+        <v>135100</v>
       </c>
       <c r="H46" s="3">
-        <v>164200</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
+        <v>196500</v>
+      </c>
+      <c r="I46" s="3">
+        <v>169400</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1948,20 +2049,23 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
+        <v>2900</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1978,36 +2082,39 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>30100</v>
+        <v>90100</v>
       </c>
       <c r="E48" s="3">
-        <v>3700</v>
+        <v>31100</v>
       </c>
       <c r="F48" s="3">
-        <v>6300</v>
+        <v>3800</v>
       </c>
       <c r="G48" s="3">
-        <v>3900</v>
+        <v>6500</v>
       </c>
       <c r="H48" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I48" s="3">
         <v>2600</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2020,17 +2127,20 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2800</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
+        <v>12500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2900</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
@@ -2047,8 +2157,8 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -2056,9 +2166,12 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2092,9 +2205,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2128,29 +2244,32 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>14200</v>
+        <v>20200</v>
       </c>
       <c r="E52" s="3">
+        <v>14600</v>
+      </c>
+      <c r="F52" s="3">
         <v>400</v>
       </c>
-      <c r="F52" s="3">
-        <v>700</v>
-      </c>
       <c r="G52" s="3">
+        <v>800</v>
+      </c>
+      <c r="H52" s="3">
         <v>900</v>
       </c>
-      <c r="H52" s="3">
-        <v>700</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+      <c r="I52" s="3">
+        <v>800</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2164,9 +2283,12 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2200,29 +2322,32 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>784000</v>
+        <v>699400</v>
       </c>
       <c r="E54" s="3">
-        <v>144300</v>
+        <v>808900</v>
       </c>
       <c r="F54" s="3">
-        <v>138000</v>
+        <v>148800</v>
       </c>
       <c r="G54" s="3">
-        <v>195300</v>
+        <v>142400</v>
       </c>
       <c r="H54" s="3">
-        <v>167500</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
+        <v>201500</v>
+      </c>
+      <c r="I54" s="3">
+        <v>172800</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2236,9 +2361,12 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2253,8 +2381,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2269,28 +2398,29 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="E57" s="3">
-        <v>5200</v>
+        <v>20600</v>
       </c>
       <c r="F57" s="3">
-        <v>13800</v>
+        <v>5400</v>
       </c>
       <c r="G57" s="3">
-        <v>6600</v>
+        <v>14200</v>
       </c>
       <c r="H57" s="3">
-        <v>7000</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
+        <v>6800</v>
+      </c>
+      <c r="I57" s="3">
+        <v>7200</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2304,29 +2434,32 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E58" s="3">
-        <v>6800</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>17700</v>
+        <v>7000</v>
       </c>
       <c r="G58" s="3">
-        <v>146000</v>
+        <v>18300</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+        <v>150700</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2340,29 +2473,32 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>270300</v>
+        <v>47700</v>
       </c>
       <c r="E59" s="3">
-        <v>70500</v>
+        <v>278900</v>
       </c>
       <c r="F59" s="3">
-        <v>8200</v>
+        <v>72700</v>
       </c>
       <c r="G59" s="3">
-        <v>9100</v>
+        <v>8400</v>
       </c>
       <c r="H59" s="3">
-        <v>41100</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+        <v>9400</v>
+      </c>
+      <c r="I59" s="3">
+        <v>42400</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2376,29 +2512,32 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>290200</v>
+        <v>64400</v>
       </c>
       <c r="E60" s="3">
-        <v>82500</v>
+        <v>299500</v>
       </c>
       <c r="F60" s="3">
-        <v>39700</v>
+        <v>85100</v>
       </c>
       <c r="G60" s="3">
-        <v>161700</v>
+        <v>41000</v>
       </c>
       <c r="H60" s="3">
-        <v>48200</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
+        <v>166800</v>
+      </c>
+      <c r="I60" s="3">
+        <v>49700</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2412,9 +2551,12 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2448,24 +2590,27 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>12300</v>
+        <v>2000</v>
       </c>
       <c r="E62" s="3">
+        <v>12700</v>
+      </c>
+      <c r="F62" s="3">
         <v>1600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1900</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2481,12 +2626,15 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2520,9 +2668,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2556,9 +2707,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2592,29 +2746,32 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>302600</v>
+        <v>66400</v>
       </c>
       <c r="E66" s="3">
-        <v>84100</v>
+        <v>312200</v>
       </c>
       <c r="F66" s="3">
-        <v>41600</v>
+        <v>86700</v>
       </c>
       <c r="G66" s="3">
-        <v>161700</v>
+        <v>42900</v>
       </c>
       <c r="H66" s="3">
-        <v>48200</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
+        <v>166800</v>
+      </c>
+      <c r="I66" s="3">
+        <v>49700</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2628,9 +2785,12 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2645,8 +2805,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2680,9 +2841,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2716,9 +2880,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2752,9 +2919,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2788,29 +2958,32 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>125400</v>
+        <v>214600</v>
       </c>
       <c r="E72" s="3">
-        <v>-152900</v>
+        <v>129400</v>
       </c>
       <c r="F72" s="3">
-        <v>-123000</v>
+        <v>-157700</v>
       </c>
       <c r="G72" s="3">
-        <v>21100</v>
+        <v>-126900</v>
       </c>
       <c r="H72" s="3">
-        <v>60400</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+        <v>21700</v>
+      </c>
+      <c r="I72" s="3">
+        <v>62300</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2824,9 +2997,12 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2860,9 +3036,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2896,9 +3075,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2932,29 +3114,32 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>481400</v>
+        <v>633000</v>
       </c>
       <c r="E76" s="3">
-        <v>60200</v>
+        <v>496700</v>
       </c>
       <c r="F76" s="3">
-        <v>96400</v>
+        <v>62100</v>
       </c>
       <c r="G76" s="3">
-        <v>33500</v>
+        <v>99500</v>
       </c>
       <c r="H76" s="3">
-        <v>119300</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+        <v>34600</v>
+      </c>
+      <c r="I76" s="3">
+        <v>123100</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2968,9 +3153,12 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3004,35 +3192,38 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3045,29 +3236,32 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>278400</v>
+        <v>94500</v>
       </c>
       <c r="E81" s="3">
-        <v>-29900</v>
+        <v>287300</v>
       </c>
       <c r="F81" s="3">
-        <v>-144000</v>
+        <v>-30900</v>
       </c>
       <c r="G81" s="3">
-        <v>17000</v>
+        <v>-148600</v>
       </c>
       <c r="H81" s="3">
-        <v>52300</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+        <v>17600</v>
+      </c>
+      <c r="I81" s="3">
+        <v>54000</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3081,9 +3275,12 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3098,29 +3295,30 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>1500</v>
+      <c r="D83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E83" s="3">
         <v>1600</v>
       </c>
       <c r="F83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H83" s="3">
         <v>1900</v>
       </c>
-      <c r="G83" s="3">
-        <v>1800</v>
-      </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1300</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3133,9 +3331,12 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3169,9 +3370,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3205,9 +3409,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3241,9 +3448,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3277,9 +3487,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3313,29 +3526,32 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>200300</v>
+      <c r="D89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E89" s="3">
-        <v>5900</v>
+        <v>206600</v>
       </c>
       <c r="F89" s="3">
-        <v>-39000</v>
+        <v>6100</v>
       </c>
       <c r="G89" s="3">
+        <v>-40200</v>
+      </c>
+      <c r="H89" s="3">
         <v>-1800</v>
       </c>
-      <c r="H89" s="3">
-        <v>12700</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+      <c r="I89" s="3">
+        <v>13100</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3349,9 +3565,12 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3366,29 +3585,30 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-5200</v>
+      <c r="D91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E91" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1200</v>
       </c>
-      <c r="G91" s="3">
-        <v>-3500</v>
-      </c>
       <c r="H91" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="I91" s="3">
         <v>-1800</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3401,9 +3621,12 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3437,9 +3660,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3473,29 +3699,32 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="3">
         <v>700</v>
       </c>
-      <c r="E94" s="3">
-        <v>-6900</v>
-      </c>
       <c r="F94" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="G94" s="3">
         <v>-2300</v>
       </c>
-      <c r="G94" s="3">
-        <v>11700</v>
-      </c>
       <c r="H94" s="3">
-        <v>-12100</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+        <v>12100</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-12500</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3509,9 +3738,12 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3526,8 +3758,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3561,9 +3794,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3597,9 +3833,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3633,9 +3872,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3669,29 +3911,32 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>126100</v>
+      <c r="D100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E100" s="3">
-        <v>-15600</v>
+        <v>130100</v>
       </c>
       <c r="F100" s="3">
-        <v>38700</v>
+        <v>-16100</v>
       </c>
       <c r="G100" s="3">
-        <v>41100</v>
+        <v>39900</v>
       </c>
       <c r="H100" s="3">
-        <v>20900</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+        <v>42400</v>
+      </c>
+      <c r="I100" s="3">
+        <v>21500</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3705,30 +3950,33 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>-1900</v>
+      <c r="D101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3741,29 +3989,32 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>325200</v>
+      <c r="D102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E102" s="3">
-        <v>-18000</v>
+        <v>335500</v>
       </c>
       <c r="F102" s="3">
-        <v>-2800</v>
+        <v>-18500</v>
       </c>
       <c r="G102" s="3">
-        <v>51300</v>
+        <v>-2900</v>
       </c>
       <c r="H102" s="3">
-        <v>21300</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+        <v>53000</v>
+      </c>
+      <c r="I102" s="3">
+        <v>22000</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
@@ -3777,7 +4028,10 @@
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CAN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CAN_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="92">
   <si>
     <t>CAN</t>
   </si>
@@ -724,22 +724,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>628900</v>
+        <v>622500</v>
       </c>
       <c r="E8" s="3">
-        <v>716200</v>
+        <v>708900</v>
       </c>
       <c r="F8" s="3">
-        <v>64300</v>
+        <v>63600</v>
       </c>
       <c r="G8" s="3">
-        <v>204300</v>
+        <v>202200</v>
       </c>
       <c r="H8" s="3">
-        <v>388500</v>
+        <v>384600</v>
       </c>
       <c r="I8" s="3">
-        <v>187900</v>
+        <v>185900</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -763,22 +763,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>377900</v>
+        <v>402400</v>
       </c>
       <c r="E9" s="3">
-        <v>306800</v>
+        <v>303600</v>
       </c>
       <c r="F9" s="3">
-        <v>58900</v>
+        <v>58300</v>
       </c>
       <c r="G9" s="3">
-        <v>278400</v>
+        <v>275600</v>
       </c>
       <c r="H9" s="3">
-        <v>315600</v>
+        <v>312300</v>
       </c>
       <c r="I9" s="3">
-        <v>101100</v>
+        <v>100000</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -802,22 +802,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>251000</v>
+        <v>220000</v>
       </c>
       <c r="E10" s="3">
-        <v>409400</v>
+        <v>405200</v>
       </c>
       <c r="F10" s="3">
         <v>5400</v>
       </c>
       <c r="G10" s="3">
-        <v>-74100</v>
+        <v>-73300</v>
       </c>
       <c r="H10" s="3">
-        <v>73000</v>
+        <v>72200</v>
       </c>
       <c r="I10" s="3">
-        <v>86800</v>
+        <v>85900</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -858,22 +858,22 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>78500</v>
+        <v>76800</v>
       </c>
       <c r="E12" s="3">
-        <v>47400</v>
+        <v>46900</v>
       </c>
       <c r="F12" s="3">
-        <v>19600</v>
+        <v>19400</v>
       </c>
       <c r="G12" s="3">
-        <v>23700</v>
+        <v>23500</v>
       </c>
       <c r="H12" s="3">
-        <v>26500</v>
+        <v>26200</v>
       </c>
       <c r="I12" s="3">
-        <v>13800</v>
+        <v>13600</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -936,7 +936,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -974,8 +974,8 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
+      <c r="D15" s="3">
+        <v>2600</v>
       </c>
       <c r="E15" s="3">
         <v>1300</v>
@@ -1028,22 +1028,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>556400</v>
+        <v>579100</v>
       </c>
       <c r="E17" s="3">
-        <v>453600</v>
+        <v>449000</v>
       </c>
       <c r="F17" s="3">
-        <v>100800</v>
+        <v>99700</v>
       </c>
       <c r="G17" s="3">
-        <v>355800</v>
+        <v>352100</v>
       </c>
       <c r="H17" s="3">
-        <v>369400</v>
+        <v>365600</v>
       </c>
       <c r="I17" s="3">
-        <v>136400</v>
+        <v>135000</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1067,22 +1067,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>72500</v>
+        <v>43300</v>
       </c>
       <c r="E18" s="3">
-        <v>262600</v>
+        <v>259900</v>
       </c>
       <c r="F18" s="3">
-        <v>-36500</v>
+        <v>-36100</v>
       </c>
       <c r="G18" s="3">
-        <v>-151500</v>
+        <v>-149900</v>
       </c>
       <c r="H18" s="3">
-        <v>19100</v>
+        <v>18900</v>
       </c>
       <c r="I18" s="3">
-        <v>51400</v>
+        <v>50900</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1123,22 +1123,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>43900</v>
+        <v>43400</v>
       </c>
       <c r="E20" s="3">
-        <v>31900</v>
+        <v>31600</v>
       </c>
       <c r="F20" s="3">
+        <v>6000</v>
+      </c>
+      <c r="G20" s="3">
+        <v>5700</v>
+      </c>
+      <c r="H20" s="3">
+        <v>17100</v>
+      </c>
+      <c r="I20" s="3">
         <v>6100</v>
-      </c>
-      <c r="G20" s="3">
-        <v>5800</v>
-      </c>
-      <c r="H20" s="3">
-        <v>17300</v>
-      </c>
-      <c r="I20" s="3">
-        <v>6200</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1162,22 +1162,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>118000</v>
+        <v>119100</v>
       </c>
       <c r="E21" s="3">
-        <v>296200</v>
+        <v>293000</v>
       </c>
       <c r="F21" s="3">
         <v>-28400</v>
       </c>
       <c r="G21" s="3">
-        <v>-143800</v>
+        <v>-142200</v>
       </c>
       <c r="H21" s="3">
-        <v>37700</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+        <v>37900</v>
+      </c>
+      <c r="I21" s="3">
+        <v>58300</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1200,8 +1200,8 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3">
+        <v>0</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1210,10 +1210,10 @@
         <v>500</v>
       </c>
       <c r="G22" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="H22" s="3">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1240,22 +1240,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>116400</v>
+        <v>86800</v>
       </c>
       <c r="E23" s="3">
-        <v>294500</v>
+        <v>291500</v>
       </c>
       <c r="F23" s="3">
-        <v>-30900</v>
+        <v>-30600</v>
       </c>
       <c r="G23" s="3">
-        <v>-148600</v>
+        <v>-147100</v>
       </c>
       <c r="H23" s="3">
-        <v>28800</v>
+        <v>28500</v>
       </c>
       <c r="I23" s="3">
-        <v>57600</v>
+        <v>57000</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1279,10 +1279,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>21900</v>
+        <v>17600</v>
       </c>
       <c r="E24" s="3">
-        <v>7200</v>
+        <v>7100</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>11200</v>
+        <v>11100</v>
       </c>
       <c r="I24" s="3">
         <v>3600</v>
@@ -1357,22 +1357,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>94500</v>
+        <v>69100</v>
       </c>
       <c r="E26" s="3">
-        <v>287300</v>
+        <v>284300</v>
       </c>
       <c r="F26" s="3">
-        <v>-30900</v>
+        <v>-30600</v>
       </c>
       <c r="G26" s="3">
-        <v>-148600</v>
+        <v>-147100</v>
       </c>
       <c r="H26" s="3">
-        <v>17600</v>
+        <v>17400</v>
       </c>
       <c r="I26" s="3">
-        <v>54000</v>
+        <v>53400</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1396,22 +1396,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>94500</v>
+        <v>69100</v>
       </c>
       <c r="E27" s="3">
-        <v>287300</v>
+        <v>284300</v>
       </c>
       <c r="F27" s="3">
-        <v>-30900</v>
+        <v>-30600</v>
       </c>
       <c r="G27" s="3">
-        <v>-148600</v>
+        <v>-147100</v>
       </c>
       <c r="H27" s="3">
-        <v>17600</v>
+        <v>17400</v>
       </c>
       <c r="I27" s="3">
-        <v>54000</v>
+        <v>53400</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1591,22 +1591,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-43900</v>
+        <v>-43400</v>
       </c>
       <c r="E32" s="3">
-        <v>-31900</v>
+        <v>-31600</v>
       </c>
       <c r="F32" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="I32" s="3">
         <v>-6100</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-5800</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-17300</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-6200</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1630,22 +1630,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>94500</v>
+        <v>69100</v>
       </c>
       <c r="E33" s="3">
-        <v>287300</v>
+        <v>284300</v>
       </c>
       <c r="F33" s="3">
-        <v>-30900</v>
+        <v>-30600</v>
       </c>
       <c r="G33" s="3">
-        <v>-148600</v>
+        <v>-147100</v>
       </c>
       <c r="H33" s="3">
-        <v>17600</v>
+        <v>17400</v>
       </c>
       <c r="I33" s="3">
-        <v>54000</v>
+        <v>53400</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1708,22 +1708,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>94500</v>
+        <v>69100</v>
       </c>
       <c r="E35" s="3">
-        <v>287300</v>
+        <v>284300</v>
       </c>
       <c r="F35" s="3">
-        <v>-30900</v>
+        <v>-30600</v>
       </c>
       <c r="G35" s="3">
-        <v>-148600</v>
+        <v>-147100</v>
       </c>
       <c r="H35" s="3">
-        <v>17600</v>
+        <v>17400</v>
       </c>
       <c r="I35" s="3">
-        <v>54000</v>
+        <v>53400</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1825,22 +1825,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>101600</v>
+        <v>100500</v>
       </c>
       <c r="E41" s="3">
-        <v>385500</v>
+        <v>381600</v>
       </c>
       <c r="F41" s="3">
-        <v>56200</v>
+        <v>55600</v>
       </c>
       <c r="G41" s="3">
-        <v>75000</v>
+        <v>74300</v>
       </c>
       <c r="H41" s="3">
-        <v>37200</v>
+        <v>36800</v>
       </c>
       <c r="I41" s="3">
-        <v>25300</v>
+        <v>25100</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1870,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>9000</v>
+        <v>8900</v>
       </c>
       <c r="G42" s="3">
         <v>1600</v>
@@ -1879,7 +1879,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>12900</v>
+        <v>12800</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1902,23 +1902,23 @@
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>3</v>
+      <c r="D43" s="3">
+        <v>71700</v>
       </c>
       <c r="E43" s="3">
-        <v>41800</v>
+        <v>41300</v>
       </c>
       <c r="F43" s="3">
-        <v>16700</v>
+        <v>16500</v>
       </c>
       <c r="G43" s="3">
-        <v>23100</v>
+        <v>22900</v>
       </c>
       <c r="H43" s="3">
-        <v>22700</v>
+        <v>22400</v>
       </c>
       <c r="I43" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1942,22 +1942,22 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>217200</v>
+        <v>209500</v>
       </c>
       <c r="E44" s="3">
-        <v>116700</v>
+        <v>115500</v>
       </c>
       <c r="F44" s="3">
-        <v>32400</v>
+        <v>32100</v>
       </c>
       <c r="G44" s="3">
-        <v>28200</v>
+        <v>27900</v>
       </c>
       <c r="H44" s="3">
-        <v>84100</v>
+        <v>83300</v>
       </c>
       <c r="I44" s="3">
-        <v>37300</v>
+        <v>36900</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
@@ -1981,22 +1981,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>255000</v>
+        <v>168400</v>
       </c>
       <c r="E45" s="3">
-        <v>213400</v>
+        <v>211200</v>
       </c>
       <c r="F45" s="3">
-        <v>30400</v>
+        <v>30100</v>
       </c>
       <c r="G45" s="3">
-        <v>7200</v>
+        <v>7100</v>
       </c>
       <c r="H45" s="3">
-        <v>52500</v>
+        <v>52000</v>
       </c>
       <c r="I45" s="3">
-        <v>89100</v>
+        <v>88200</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -2020,22 +2020,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>573700</v>
+        <v>550200</v>
       </c>
       <c r="E46" s="3">
-        <v>757400</v>
+        <v>749600</v>
       </c>
       <c r="F46" s="3">
-        <v>144700</v>
+        <v>143200</v>
       </c>
       <c r="G46" s="3">
-        <v>135100</v>
+        <v>133700</v>
       </c>
       <c r="H46" s="3">
-        <v>196500</v>
+        <v>194500</v>
       </c>
       <c r="I46" s="3">
-        <v>169400</v>
+        <v>167700</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -2059,10 +2059,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="E47" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
@@ -2098,16 +2098,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>90100</v>
+        <v>89200</v>
       </c>
       <c r="E48" s="3">
-        <v>31100</v>
+        <v>30800</v>
       </c>
       <c r="F48" s="3">
         <v>3800</v>
       </c>
       <c r="G48" s="3">
-        <v>6500</v>
+        <v>6400</v>
       </c>
       <c r="H48" s="3">
         <v>4000</v>
@@ -2137,7 +2137,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>12500</v>
+        <v>12400</v>
       </c>
       <c r="E49" s="3">
         <v>2900</v>
@@ -2254,22 +2254,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>20200</v>
+        <v>24000</v>
       </c>
       <c r="E52" s="3">
-        <v>14600</v>
+        <v>14500</v>
       </c>
       <c r="F52" s="3">
         <v>400</v>
       </c>
       <c r="G52" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="H52" s="3">
         <v>900</v>
       </c>
       <c r="I52" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2332,22 +2332,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>699400</v>
+        <v>678600</v>
       </c>
       <c r="E54" s="3">
-        <v>808900</v>
+        <v>800600</v>
       </c>
       <c r="F54" s="3">
-        <v>148800</v>
+        <v>147300</v>
       </c>
       <c r="G54" s="3">
-        <v>142400</v>
+        <v>140900</v>
       </c>
       <c r="H54" s="3">
-        <v>201500</v>
+        <v>199400</v>
       </c>
       <c r="I54" s="3">
-        <v>172800</v>
+        <v>171000</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2405,19 +2405,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>16700</v>
+        <v>16500</v>
       </c>
       <c r="E57" s="3">
-        <v>20600</v>
+        <v>20400</v>
       </c>
       <c r="F57" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="G57" s="3">
-        <v>14200</v>
+        <v>14100</v>
       </c>
       <c r="H57" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="I57" s="3">
         <v>7200</v>
@@ -2450,13 +2450,13 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>7000</v>
+        <v>6900</v>
       </c>
       <c r="G58" s="3">
-        <v>18300</v>
+        <v>18100</v>
       </c>
       <c r="H58" s="3">
-        <v>150700</v>
+        <v>149100</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -2483,22 +2483,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>47700</v>
+        <v>58000</v>
       </c>
       <c r="E59" s="3">
-        <v>278900</v>
+        <v>276000</v>
       </c>
       <c r="F59" s="3">
-        <v>72700</v>
+        <v>72000</v>
       </c>
       <c r="G59" s="3">
         <v>8400</v>
       </c>
       <c r="H59" s="3">
-        <v>9400</v>
+        <v>9300</v>
       </c>
       <c r="I59" s="3">
-        <v>42400</v>
+        <v>42000</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2522,22 +2522,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>64400</v>
+        <v>74500</v>
       </c>
       <c r="E60" s="3">
-        <v>299500</v>
+        <v>296400</v>
       </c>
       <c r="F60" s="3">
-        <v>85100</v>
+        <v>84200</v>
       </c>
       <c r="G60" s="3">
-        <v>41000</v>
+        <v>40500</v>
       </c>
       <c r="H60" s="3">
-        <v>166800</v>
+        <v>165100</v>
       </c>
       <c r="I60" s="3">
-        <v>49700</v>
+        <v>49200</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2603,7 +2603,7 @@
         <v>2000</v>
       </c>
       <c r="E62" s="3">
-        <v>12700</v>
+        <v>12600</v>
       </c>
       <c r="F62" s="3">
         <v>1600</v>
@@ -2756,22 +2756,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>66400</v>
+        <v>76500</v>
       </c>
       <c r="E66" s="3">
-        <v>312200</v>
+        <v>309000</v>
       </c>
       <c r="F66" s="3">
-        <v>86700</v>
+        <v>85800</v>
       </c>
       <c r="G66" s="3">
-        <v>42900</v>
+        <v>42500</v>
       </c>
       <c r="H66" s="3">
-        <v>166800</v>
+        <v>165100</v>
       </c>
       <c r="I66" s="3">
-        <v>49700</v>
+        <v>49200</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2968,22 +2968,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>214600</v>
+        <v>188000</v>
       </c>
       <c r="E72" s="3">
-        <v>129400</v>
+        <v>128000</v>
       </c>
       <c r="F72" s="3">
-        <v>-157700</v>
+        <v>-156100</v>
       </c>
       <c r="G72" s="3">
-        <v>-126900</v>
+        <v>-125600</v>
       </c>
       <c r="H72" s="3">
-        <v>21700</v>
+        <v>21500</v>
       </c>
       <c r="I72" s="3">
-        <v>62300</v>
+        <v>61600</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -3124,22 +3124,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>633000</v>
+        <v>602100</v>
       </c>
       <c r="E76" s="3">
-        <v>496700</v>
+        <v>491700</v>
       </c>
       <c r="F76" s="3">
-        <v>62100</v>
+        <v>61500</v>
       </c>
       <c r="G76" s="3">
-        <v>99500</v>
+        <v>98500</v>
       </c>
       <c r="H76" s="3">
-        <v>34600</v>
+        <v>34300</v>
       </c>
       <c r="I76" s="3">
-        <v>123100</v>
+        <v>121900</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3246,22 +3246,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>94500</v>
+        <v>69100</v>
       </c>
       <c r="E81" s="3">
-        <v>287300</v>
+        <v>284300</v>
       </c>
       <c r="F81" s="3">
-        <v>-30900</v>
+        <v>-30600</v>
       </c>
       <c r="G81" s="3">
-        <v>-148600</v>
+        <v>-147100</v>
       </c>
       <c r="H81" s="3">
-        <v>17600</v>
+        <v>17400</v>
       </c>
       <c r="I81" s="3">
-        <v>54000</v>
+        <v>53400</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3301,8 +3301,8 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>32200</v>
       </c>
       <c r="E83" s="3">
         <v>1600</v>
@@ -3311,7 +3311,7 @@
         <v>1700</v>
       </c>
       <c r="G83" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="H83" s="3">
         <v>1900</v>
@@ -3535,23 +3535,23 @@
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>-241200</v>
       </c>
       <c r="E89" s="3">
-        <v>206600</v>
+        <v>204500</v>
       </c>
       <c r="F89" s="3">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="G89" s="3">
-        <v>-40200</v>
+        <v>-39800</v>
       </c>
       <c r="H89" s="3">
         <v>-1800</v>
       </c>
       <c r="I89" s="3">
-        <v>13100</v>
+        <v>13000</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3591,8 +3591,8 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>-13500</v>
       </c>
       <c r="E91" s="3">
         <v>-5400</v>
@@ -3604,7 +3604,7 @@
         <v>-1200</v>
       </c>
       <c r="H91" s="3">
-        <v>-3600</v>
+        <v>-3500</v>
       </c>
       <c r="I91" s="3">
         <v>-1800</v>
@@ -3708,23 +3708,23 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>-4300</v>
       </c>
       <c r="E94" s="3">
         <v>700</v>
       </c>
       <c r="F94" s="3">
-        <v>-7100</v>
+        <v>-7000</v>
       </c>
       <c r="G94" s="3">
         <v>-2300</v>
       </c>
       <c r="H94" s="3">
-        <v>12100</v>
+        <v>11900</v>
       </c>
       <c r="I94" s="3">
-        <v>-12500</v>
+        <v>-12300</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3920,23 +3920,23 @@
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>-52000</v>
       </c>
       <c r="E100" s="3">
-        <v>130100</v>
+        <v>128800</v>
       </c>
       <c r="F100" s="3">
-        <v>-16100</v>
+        <v>-15900</v>
       </c>
       <c r="G100" s="3">
-        <v>39900</v>
+        <v>39500</v>
       </c>
       <c r="H100" s="3">
-        <v>42400</v>
+        <v>42000</v>
       </c>
       <c r="I100" s="3">
-        <v>21500</v>
+        <v>21300</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3959,8 +3959,8 @@
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>9700</v>
       </c>
       <c r="E101" s="3">
         <v>-2000</v>
@@ -3998,23 +3998,23 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>-287800</v>
       </c>
       <c r="E102" s="3">
-        <v>335500</v>
+        <v>332000</v>
       </c>
       <c r="F102" s="3">
-        <v>-18500</v>
+        <v>-18300</v>
       </c>
       <c r="G102" s="3">
         <v>-2900</v>
       </c>
       <c r="H102" s="3">
-        <v>53000</v>
+        <v>52400</v>
       </c>
       <c r="I102" s="3">
-        <v>22000</v>
+        <v>21800</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/CAN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CAN_YR_FIN.xlsx
@@ -724,22 +724,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>622500</v>
+        <v>4378900</v>
       </c>
       <c r="E8" s="3">
-        <v>708900</v>
+        <v>4986700</v>
       </c>
       <c r="F8" s="3">
-        <v>63600</v>
+        <v>447700</v>
       </c>
       <c r="G8" s="3">
-        <v>202200</v>
+        <v>1422600</v>
       </c>
       <c r="H8" s="3">
-        <v>384600</v>
+        <v>2705300</v>
       </c>
       <c r="I8" s="3">
-        <v>185900</v>
+        <v>1308100</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -763,22 +763,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>402400</v>
+        <v>2831100</v>
       </c>
       <c r="E9" s="3">
-        <v>303600</v>
+        <v>2136000</v>
       </c>
       <c r="F9" s="3">
-        <v>58300</v>
+        <v>409900</v>
       </c>
       <c r="G9" s="3">
-        <v>275600</v>
+        <v>1938600</v>
       </c>
       <c r="H9" s="3">
-        <v>312300</v>
+        <v>2197200</v>
       </c>
       <c r="I9" s="3">
-        <v>100000</v>
+        <v>703700</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -802,22 +802,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>220000</v>
+        <v>1547800</v>
       </c>
       <c r="E10" s="3">
-        <v>405200</v>
+        <v>2850700</v>
       </c>
       <c r="F10" s="3">
-        <v>5400</v>
+        <v>37800</v>
       </c>
       <c r="G10" s="3">
-        <v>-73300</v>
+        <v>-516000</v>
       </c>
       <c r="H10" s="3">
-        <v>72200</v>
+        <v>508100</v>
       </c>
       <c r="I10" s="3">
-        <v>85900</v>
+        <v>604400</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -858,22 +858,22 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>76800</v>
+        <v>540600</v>
       </c>
       <c r="E12" s="3">
-        <v>46900</v>
+        <v>330000</v>
       </c>
       <c r="F12" s="3">
-        <v>19400</v>
+        <v>136200</v>
       </c>
       <c r="G12" s="3">
-        <v>23500</v>
+        <v>165300</v>
       </c>
       <c r="H12" s="3">
-        <v>26200</v>
+        <v>184500</v>
       </c>
       <c r="I12" s="3">
-        <v>13600</v>
+        <v>96000</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -936,7 +936,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>7500</v>
+        <v>53000</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -951,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -975,22 +975,22 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2600</v>
+        <v>18100</v>
       </c>
       <c r="E15" s="3">
-        <v>1300</v>
+        <v>9300</v>
       </c>
       <c r="F15" s="3">
-        <v>1700</v>
+        <v>11600</v>
       </c>
       <c r="G15" s="3">
-        <v>1700</v>
+        <v>11800</v>
       </c>
       <c r="H15" s="3">
-        <v>1700</v>
+        <v>11900</v>
       </c>
       <c r="I15" s="3">
-        <v>1300</v>
+        <v>9000</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
@@ -1028,22 +1028,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>579100</v>
+        <v>4074200</v>
       </c>
       <c r="E17" s="3">
-        <v>449000</v>
+        <v>3158400</v>
       </c>
       <c r="F17" s="3">
-        <v>99700</v>
+        <v>701600</v>
       </c>
       <c r="G17" s="3">
-        <v>352100</v>
+        <v>2477200</v>
       </c>
       <c r="H17" s="3">
-        <v>365600</v>
+        <v>2572300</v>
       </c>
       <c r="I17" s="3">
-        <v>135000</v>
+        <v>950000</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1067,22 +1067,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>43300</v>
+        <v>304700</v>
       </c>
       <c r="E18" s="3">
-        <v>259900</v>
+        <v>1828300</v>
       </c>
       <c r="F18" s="3">
-        <v>-36100</v>
+        <v>-253900</v>
       </c>
       <c r="G18" s="3">
-        <v>-149900</v>
+        <v>-1054500</v>
       </c>
       <c r="H18" s="3">
-        <v>18900</v>
+        <v>133000</v>
       </c>
       <c r="I18" s="3">
-        <v>50900</v>
+        <v>358000</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1123,22 +1123,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>43400</v>
+        <v>305600</v>
       </c>
       <c r="E20" s="3">
-        <v>31600</v>
+        <v>222100</v>
       </c>
       <c r="F20" s="3">
-        <v>6000</v>
+        <v>42400</v>
       </c>
       <c r="G20" s="3">
-        <v>5700</v>
+        <v>40100</v>
       </c>
       <c r="H20" s="3">
-        <v>17100</v>
+        <v>120300</v>
       </c>
       <c r="I20" s="3">
-        <v>6100</v>
+        <v>42900</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1162,22 +1162,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>119100</v>
+        <v>836800</v>
       </c>
       <c r="E21" s="3">
-        <v>293000</v>
+        <v>2061400</v>
       </c>
       <c r="F21" s="3">
-        <v>-28400</v>
+        <v>-199700</v>
       </c>
       <c r="G21" s="3">
-        <v>-142200</v>
+        <v>-1000800</v>
       </c>
       <c r="H21" s="3">
-        <v>37900</v>
+        <v>266500</v>
       </c>
       <c r="I21" s="3">
-        <v>58300</v>
+        <v>410100</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1207,13 +1207,13 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>500</v>
+        <v>3600</v>
       </c>
       <c r="G22" s="3">
-        <v>2800</v>
+        <v>20000</v>
       </c>
       <c r="H22" s="3">
-        <v>7500</v>
+        <v>53100</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1240,22 +1240,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>86800</v>
+        <v>610400</v>
       </c>
       <c r="E23" s="3">
-        <v>291500</v>
+        <v>2050400</v>
       </c>
       <c r="F23" s="3">
-        <v>-30600</v>
+        <v>-215100</v>
       </c>
       <c r="G23" s="3">
-        <v>-147100</v>
+        <v>-1034500</v>
       </c>
       <c r="H23" s="3">
-        <v>28500</v>
+        <v>200200</v>
       </c>
       <c r="I23" s="3">
-        <v>57000</v>
+        <v>401000</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1279,10 +1279,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>17600</v>
+        <v>124000</v>
       </c>
       <c r="E24" s="3">
-        <v>7100</v>
+        <v>50100</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>11100</v>
+        <v>77800</v>
       </c>
       <c r="I24" s="3">
-        <v>3600</v>
+        <v>25200</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1357,22 +1357,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>69100</v>
+        <v>486400</v>
       </c>
       <c r="E26" s="3">
-        <v>284300</v>
+        <v>2000300</v>
       </c>
       <c r="F26" s="3">
-        <v>-30600</v>
+        <v>-215100</v>
       </c>
       <c r="G26" s="3">
-        <v>-147100</v>
+        <v>-1034500</v>
       </c>
       <c r="H26" s="3">
-        <v>17400</v>
+        <v>122400</v>
       </c>
       <c r="I26" s="3">
-        <v>53400</v>
+        <v>375800</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1396,22 +1396,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>69100</v>
+        <v>486400</v>
       </c>
       <c r="E27" s="3">
-        <v>284300</v>
+        <v>2000300</v>
       </c>
       <c r="F27" s="3">
-        <v>-30600</v>
+        <v>-215100</v>
       </c>
       <c r="G27" s="3">
-        <v>-147100</v>
+        <v>-1034500</v>
       </c>
       <c r="H27" s="3">
-        <v>17400</v>
+        <v>122400</v>
       </c>
       <c r="I27" s="3">
-        <v>53400</v>
+        <v>375800</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1591,22 +1591,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-43400</v>
+        <v>-305600</v>
       </c>
       <c r="E32" s="3">
-        <v>-31600</v>
+        <v>-222100</v>
       </c>
       <c r="F32" s="3">
-        <v>-6000</v>
+        <v>-42400</v>
       </c>
       <c r="G32" s="3">
-        <v>-5700</v>
+        <v>-40100</v>
       </c>
       <c r="H32" s="3">
-        <v>-17100</v>
+        <v>-120300</v>
       </c>
       <c r="I32" s="3">
-        <v>-6100</v>
+        <v>-42900</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1630,22 +1630,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>69100</v>
+        <v>486400</v>
       </c>
       <c r="E33" s="3">
-        <v>284300</v>
+        <v>2000300</v>
       </c>
       <c r="F33" s="3">
-        <v>-30600</v>
+        <v>-215100</v>
       </c>
       <c r="G33" s="3">
-        <v>-147100</v>
+        <v>-1034500</v>
       </c>
       <c r="H33" s="3">
-        <v>17400</v>
+        <v>122400</v>
       </c>
       <c r="I33" s="3">
-        <v>53400</v>
+        <v>375800</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1708,22 +1708,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>69100</v>
+        <v>486400</v>
       </c>
       <c r="E35" s="3">
-        <v>284300</v>
+        <v>2000300</v>
       </c>
       <c r="F35" s="3">
-        <v>-30600</v>
+        <v>-215100</v>
       </c>
       <c r="G35" s="3">
-        <v>-147100</v>
+        <v>-1034500</v>
       </c>
       <c r="H35" s="3">
-        <v>17400</v>
+        <v>122400</v>
       </c>
       <c r="I35" s="3">
-        <v>53400</v>
+        <v>375800</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1825,22 +1825,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100500</v>
+        <v>101600</v>
       </c>
       <c r="E41" s="3">
-        <v>381600</v>
+        <v>2684300</v>
       </c>
       <c r="F41" s="3">
-        <v>55600</v>
+        <v>391300</v>
       </c>
       <c r="G41" s="3">
-        <v>74300</v>
+        <v>522500</v>
       </c>
       <c r="H41" s="3">
-        <v>36800</v>
+        <v>258900</v>
       </c>
       <c r="I41" s="3">
-        <v>25100</v>
+        <v>176500</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1870,16 +1870,16 @@
         <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>8900</v>
+        <v>62400</v>
       </c>
       <c r="G42" s="3">
-        <v>1600</v>
+        <v>11000</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>12800</v>
+        <v>90000</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1903,22 +1903,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>71700</v>
+        <v>504300</v>
       </c>
       <c r="E43" s="3">
-        <v>41300</v>
+        <v>290900</v>
       </c>
       <c r="F43" s="3">
-        <v>16500</v>
+        <v>116300</v>
       </c>
       <c r="G43" s="3">
-        <v>22900</v>
+        <v>161100</v>
       </c>
       <c r="H43" s="3">
-        <v>22400</v>
+        <v>157900</v>
       </c>
       <c r="I43" s="3">
-        <v>4600</v>
+        <v>32600</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1942,22 +1942,22 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>209500</v>
+        <v>1685600</v>
       </c>
       <c r="E44" s="3">
-        <v>115500</v>
+        <v>812400</v>
       </c>
       <c r="F44" s="3">
-        <v>32100</v>
+        <v>225500</v>
       </c>
       <c r="G44" s="3">
-        <v>27900</v>
+        <v>196100</v>
       </c>
       <c r="H44" s="3">
-        <v>83300</v>
+        <v>585700</v>
       </c>
       <c r="I44" s="3">
-        <v>36900</v>
+        <v>259800</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
@@ -1981,22 +1981,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>168400</v>
+        <v>1427300</v>
       </c>
       <c r="E45" s="3">
-        <v>211200</v>
+        <v>1485900</v>
       </c>
       <c r="F45" s="3">
-        <v>30100</v>
+        <v>211600</v>
       </c>
       <c r="G45" s="3">
-        <v>7100</v>
+        <v>50100</v>
       </c>
       <c r="H45" s="3">
-        <v>52000</v>
+        <v>365900</v>
       </c>
       <c r="I45" s="3">
-        <v>88200</v>
+        <v>620600</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -2020,22 +2020,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>550200</v>
+        <v>555700</v>
       </c>
       <c r="E46" s="3">
-        <v>749600</v>
+        <v>5273500</v>
       </c>
       <c r="F46" s="3">
-        <v>143200</v>
+        <v>1007200</v>
       </c>
       <c r="G46" s="3">
-        <v>133700</v>
+        <v>940800</v>
       </c>
       <c r="H46" s="3">
-        <v>194500</v>
+        <v>1368400</v>
       </c>
       <c r="I46" s="3">
-        <v>167700</v>
+        <v>1179600</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -2059,10 +2059,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="E47" s="3">
-        <v>2800</v>
+        <v>20000</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
@@ -2098,22 +2098,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>89200</v>
+        <v>717200</v>
       </c>
       <c r="E48" s="3">
-        <v>30800</v>
+        <v>216500</v>
       </c>
       <c r="F48" s="3">
-        <v>3800</v>
+        <v>26600</v>
       </c>
       <c r="G48" s="3">
-        <v>6400</v>
+        <v>45400</v>
       </c>
       <c r="H48" s="3">
-        <v>4000</v>
+        <v>27900</v>
       </c>
       <c r="I48" s="3">
-        <v>2600</v>
+        <v>18400</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2137,10 +2137,10 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>12400</v>
+        <v>12500</v>
       </c>
       <c r="E49" s="3">
-        <v>2900</v>
+        <v>20300</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
@@ -2254,22 +2254,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>24000</v>
+        <v>24200</v>
       </c>
       <c r="E52" s="3">
-        <v>14500</v>
+        <v>102000</v>
       </c>
       <c r="F52" s="3">
-        <v>400</v>
+        <v>2500</v>
       </c>
       <c r="G52" s="3">
-        <v>700</v>
+        <v>5300</v>
       </c>
       <c r="H52" s="3">
-        <v>900</v>
+        <v>6300</v>
       </c>
       <c r="I52" s="3">
-        <v>700</v>
+        <v>5300</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2332,22 +2332,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>678600</v>
+        <v>685000</v>
       </c>
       <c r="E54" s="3">
-        <v>800600</v>
+        <v>5632300</v>
       </c>
       <c r="F54" s="3">
-        <v>147300</v>
+        <v>1036400</v>
       </c>
       <c r="G54" s="3">
-        <v>140900</v>
+        <v>991400</v>
       </c>
       <c r="H54" s="3">
-        <v>199400</v>
+        <v>1402700</v>
       </c>
       <c r="I54" s="3">
-        <v>171000</v>
+        <v>1203200</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2405,22 +2405,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>16500</v>
+        <v>16700</v>
       </c>
       <c r="E57" s="3">
-        <v>20400</v>
+        <v>143400</v>
       </c>
       <c r="F57" s="3">
-        <v>5300</v>
+        <v>37400</v>
       </c>
       <c r="G57" s="3">
-        <v>14100</v>
+        <v>99000</v>
       </c>
       <c r="H57" s="3">
-        <v>6700</v>
+        <v>47200</v>
       </c>
       <c r="I57" s="3">
-        <v>7200</v>
+        <v>50400</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2450,13 +2450,13 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>6900</v>
+        <v>48700</v>
       </c>
       <c r="G58" s="3">
-        <v>18100</v>
+        <v>127400</v>
       </c>
       <c r="H58" s="3">
-        <v>149100</v>
+        <v>1049000</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -2483,22 +2483,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>58000</v>
+        <v>395300</v>
       </c>
       <c r="E59" s="3">
-        <v>276000</v>
+        <v>1941700</v>
       </c>
       <c r="F59" s="3">
-        <v>72000</v>
+        <v>506400</v>
       </c>
       <c r="G59" s="3">
-        <v>8400</v>
+        <v>58800</v>
       </c>
       <c r="H59" s="3">
-        <v>9300</v>
+        <v>65500</v>
       </c>
       <c r="I59" s="3">
-        <v>42000</v>
+        <v>295500</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2522,22 +2522,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>74500</v>
+        <v>75300</v>
       </c>
       <c r="E60" s="3">
-        <v>296400</v>
+        <v>2085100</v>
       </c>
       <c r="F60" s="3">
-        <v>84200</v>
+        <v>592500</v>
       </c>
       <c r="G60" s="3">
-        <v>40500</v>
+        <v>285200</v>
       </c>
       <c r="H60" s="3">
-        <v>165100</v>
+        <v>1161700</v>
       </c>
       <c r="I60" s="3">
-        <v>49200</v>
+        <v>346000</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2603,13 +2603,13 @@
         <v>2000</v>
       </c>
       <c r="E62" s="3">
-        <v>12600</v>
+        <v>88500</v>
       </c>
       <c r="F62" s="3">
-        <v>1600</v>
+        <v>11300</v>
       </c>
       <c r="G62" s="3">
-        <v>1900</v>
+        <v>13400</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2756,22 +2756,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>76500</v>
+        <v>77300</v>
       </c>
       <c r="E66" s="3">
-        <v>309000</v>
+        <v>2173600</v>
       </c>
       <c r="F66" s="3">
-        <v>85800</v>
+        <v>603800</v>
       </c>
       <c r="G66" s="3">
-        <v>42500</v>
+        <v>298600</v>
       </c>
       <c r="H66" s="3">
-        <v>165100</v>
+        <v>1161700</v>
       </c>
       <c r="I66" s="3">
-        <v>49200</v>
+        <v>346000</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2968,22 +2968,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>188000</v>
+        <v>209400</v>
       </c>
       <c r="E72" s="3">
-        <v>128000</v>
+        <v>900800</v>
       </c>
       <c r="F72" s="3">
-        <v>-156100</v>
+        <v>-1098400</v>
       </c>
       <c r="G72" s="3">
-        <v>-125600</v>
+        <v>-883300</v>
       </c>
       <c r="H72" s="3">
-        <v>21500</v>
+        <v>151200</v>
       </c>
       <c r="I72" s="3">
-        <v>61600</v>
+        <v>433600</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -3124,22 +3124,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>602100</v>
+        <v>607700</v>
       </c>
       <c r="E76" s="3">
-        <v>491700</v>
+        <v>3458700</v>
       </c>
       <c r="F76" s="3">
-        <v>61500</v>
+        <v>432600</v>
       </c>
       <c r="G76" s="3">
-        <v>98500</v>
+        <v>692800</v>
       </c>
       <c r="H76" s="3">
-        <v>34300</v>
+        <v>241000</v>
       </c>
       <c r="I76" s="3">
-        <v>121900</v>
+        <v>857200</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3246,22 +3246,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>69100</v>
+        <v>486400</v>
       </c>
       <c r="E81" s="3">
-        <v>284300</v>
+        <v>2000300</v>
       </c>
       <c r="F81" s="3">
-        <v>-30600</v>
+        <v>-215100</v>
       </c>
       <c r="G81" s="3">
-        <v>-147100</v>
+        <v>-1034500</v>
       </c>
       <c r="H81" s="3">
-        <v>17400</v>
+        <v>122400</v>
       </c>
       <c r="I81" s="3">
-        <v>53400</v>
+        <v>375800</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3302,22 +3302,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>32200</v>
+        <v>226400</v>
       </c>
       <c r="E83" s="3">
-        <v>1600</v>
+        <v>11000</v>
       </c>
       <c r="F83" s="3">
-        <v>1700</v>
+        <v>11900</v>
       </c>
       <c r="G83" s="3">
-        <v>1900</v>
+        <v>13700</v>
       </c>
       <c r="H83" s="3">
-        <v>1900</v>
+        <v>13100</v>
       </c>
       <c r="I83" s="3">
-        <v>1300</v>
+        <v>9100</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -3536,22 +3536,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-241200</v>
+        <v>-1696700</v>
       </c>
       <c r="E89" s="3">
-        <v>204500</v>
+        <v>1438900</v>
       </c>
       <c r="F89" s="3">
-        <v>6000</v>
+        <v>42300</v>
       </c>
       <c r="G89" s="3">
-        <v>-39800</v>
+        <v>-280100</v>
       </c>
       <c r="H89" s="3">
-        <v>-1800</v>
+        <v>-12700</v>
       </c>
       <c r="I89" s="3">
-        <v>13000</v>
+        <v>91200</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3592,22 +3592,22 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-13500</v>
+        <v>-95100</v>
       </c>
       <c r="E91" s="3">
-        <v>-5400</v>
+        <v>-37700</v>
       </c>
       <c r="F91" s="3">
-        <v>-300</v>
+        <v>-2200</v>
       </c>
       <c r="G91" s="3">
-        <v>-1200</v>
+        <v>-8400</v>
       </c>
       <c r="H91" s="3">
-        <v>-3500</v>
+        <v>-24900</v>
       </c>
       <c r="I91" s="3">
-        <v>-1800</v>
+        <v>-12700</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3709,22 +3709,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4300</v>
+        <v>-30300</v>
       </c>
       <c r="E94" s="3">
-        <v>700</v>
+        <v>5100</v>
       </c>
       <c r="F94" s="3">
-        <v>-7000</v>
+        <v>-49600</v>
       </c>
       <c r="G94" s="3">
-        <v>-2300</v>
+        <v>-16300</v>
       </c>
       <c r="H94" s="3">
-        <v>11900</v>
+        <v>84000</v>
       </c>
       <c r="I94" s="3">
-        <v>-12300</v>
+        <v>-86800</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3921,22 +3921,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-52000</v>
+        <v>-365500</v>
       </c>
       <c r="E100" s="3">
-        <v>128800</v>
+        <v>905900</v>
       </c>
       <c r="F100" s="3">
-        <v>-15900</v>
+        <v>-111900</v>
       </c>
       <c r="G100" s="3">
-        <v>39500</v>
+        <v>278000</v>
       </c>
       <c r="H100" s="3">
-        <v>42000</v>
+        <v>295200</v>
       </c>
       <c r="I100" s="3">
-        <v>21300</v>
+        <v>150000</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3960,22 +3960,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>9700</v>
+        <v>68100</v>
       </c>
       <c r="E101" s="3">
-        <v>-2000</v>
+        <v>-13900</v>
       </c>
       <c r="F101" s="3">
-        <v>-1400</v>
+        <v>-9800</v>
       </c>
       <c r="G101" s="3">
-        <v>-300</v>
+        <v>-1900</v>
       </c>
       <c r="H101" s="3">
-        <v>300</v>
+        <v>2300</v>
       </c>
       <c r="I101" s="3">
-        <v>-200</v>
+        <v>-1300</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -3999,22 +3999,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-287800</v>
+        <v>-2024400</v>
       </c>
       <c r="E102" s="3">
-        <v>332000</v>
+        <v>2335900</v>
       </c>
       <c r="F102" s="3">
-        <v>-18300</v>
+        <v>-129000</v>
       </c>
       <c r="G102" s="3">
-        <v>-2900</v>
+        <v>-20400</v>
       </c>
       <c r="H102" s="3">
-        <v>52400</v>
+        <v>368700</v>
       </c>
       <c r="I102" s="3">
-        <v>21800</v>
+        <v>153100</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
